--- a/exo_control/neural_network_parameters/excel/timestamps_typical_cnn.xlsx
+++ b/exo_control/neural_network_parameters/excel/timestamps_typical_cnn.xlsx
@@ -467,4082 +467,4082 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8.804743766784668</v>
+        <v>41.2808952331543</v>
       </c>
       <c r="B2" t="n">
-        <v>-12.84154510498047</v>
+        <v>5.476309776306152</v>
       </c>
       <c r="C2" t="n">
-        <v>-5.696794986724854</v>
+        <v>11.88391399383545</v>
       </c>
       <c r="D2" t="n">
-        <v>2.409651041030884</v>
+        <v>28.46796607971191</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.595315933227539</v>
+        <v>-19.36921691894531</v>
       </c>
       <c r="F2" t="n">
-        <v>2.566001892089844</v>
+        <v>10.06623268127441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>9.411608695983887</v>
+        <v>41.72237396240234</v>
       </c>
       <c r="B3" t="n">
-        <v>-11.20853424072266</v>
+        <v>8.093025207519531</v>
       </c>
       <c r="C3" t="n">
-        <v>-2.276410818099976</v>
+        <v>16.23332214355469</v>
       </c>
       <c r="D3" t="n">
-        <v>6.569133281707764</v>
+        <v>34.52874374389648</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.24033784866333</v>
+        <v>-20.28025245666504</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.8633912801742554</v>
+        <v>1.545602202415466</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>9.389724731445312</v>
+        <v>41.37229919433594</v>
       </c>
       <c r="B4" t="n">
-        <v>-10.2271203994751</v>
+        <v>10.25791549682617</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5534960031509399</v>
+        <v>20.13307571411133</v>
       </c>
       <c r="D4" t="n">
-        <v>10.66413974761963</v>
+        <v>40.8531494140625</v>
       </c>
       <c r="E4" t="n">
-        <v>-6.115169048309326</v>
+        <v>-20.04121398925781</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.64519739151001</v>
+        <v>-6.707662105560303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10.20528984069824</v>
+        <v>41.11489868164062</v>
       </c>
       <c r="B5" t="n">
-        <v>-8.24897289276123</v>
+        <v>12.99527072906494</v>
       </c>
       <c r="C5" t="n">
-        <v>3.211928606033325</v>
+        <v>23.54767799377441</v>
       </c>
       <c r="D5" t="n">
-        <v>14.09224796295166</v>
+        <v>45.85111618041992</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.104156017303467</v>
+        <v>-17.55838775634766</v>
       </c>
       <c r="F5" t="n">
-        <v>-7.967444896697998</v>
+        <v>-13.78261756896973</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>9.546244621276855</v>
+        <v>39.86656951904297</v>
       </c>
       <c r="B6" t="n">
-        <v>-7.103456497192383</v>
+        <v>16.38670921325684</v>
       </c>
       <c r="C6" t="n">
-        <v>4.275069236755371</v>
+        <v>25.40216255187988</v>
       </c>
       <c r="D6" t="n">
-        <v>17.62249946594238</v>
+        <v>51.45382308959961</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.982711553573608</v>
+        <v>-14.92506504058838</v>
       </c>
       <c r="F6" t="n">
-        <v>-9.642183303833008</v>
+        <v>-18.20638847351074</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.458027839660645</v>
+        <v>38.44939041137695</v>
       </c>
       <c r="B7" t="n">
-        <v>-4.818379878997803</v>
+        <v>20.02045059204102</v>
       </c>
       <c r="C7" t="n">
-        <v>4.462950706481934</v>
+        <v>26.05742454528809</v>
       </c>
       <c r="D7" t="n">
-        <v>20.9495677947998</v>
+        <v>55.33908462524414</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.538498163223267</v>
+        <v>-11.14823818206787</v>
       </c>
       <c r="F7" t="n">
-        <v>-9.684405326843262</v>
+        <v>-18.47010231018066</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>7.101236820220947</v>
+        <v>36.33556747436523</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.629002571105957</v>
+        <v>22.34470176696777</v>
       </c>
       <c r="C8" t="n">
-        <v>3.961963891983032</v>
+        <v>25.00468444824219</v>
       </c>
       <c r="D8" t="n">
-        <v>22.9791145324707</v>
+        <v>58.21903228759766</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.7823452949523926</v>
+        <v>-6.509360790252686</v>
       </c>
       <c r="F8" t="n">
-        <v>-9.110099792480469</v>
+        <v>-17.45345878601074</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>5.70365571975708</v>
+        <v>33.94021224975586</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.8785485625267029</v>
+        <v>25.34330749511719</v>
       </c>
       <c r="C9" t="n">
-        <v>2.880774259567261</v>
+        <v>24.21050643920898</v>
       </c>
       <c r="D9" t="n">
-        <v>23.13357734680176</v>
+        <v>58.16479110717773</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6204714775085449</v>
+        <v>-2.521781444549561</v>
       </c>
       <c r="F9" t="n">
-        <v>-6.738289356231689</v>
+        <v>-11.92114353179932</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>4.308341503143311</v>
+        <v>31.05339431762695</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6128778457641602</v>
+        <v>28.94809532165527</v>
       </c>
       <c r="C10" t="n">
-        <v>1.450943231582642</v>
+        <v>22.34429168701172</v>
       </c>
       <c r="D10" t="n">
-        <v>22.12680625915527</v>
+        <v>59.89870071411133</v>
       </c>
       <c r="E10" t="n">
-        <v>2.048148393630981</v>
+        <v>-0.1672134399414062</v>
       </c>
       <c r="F10" t="n">
-        <v>-4.400174617767334</v>
+        <v>-6.962119102478027</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2.615747690200806</v>
+        <v>27.65354919433594</v>
       </c>
       <c r="B11" t="n">
-        <v>2.392877101898193</v>
+        <v>31.33682060241699</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.7470219731330872</v>
+        <v>19.82506942749023</v>
       </c>
       <c r="D11" t="n">
-        <v>20.17699241638184</v>
+        <v>57.12930679321289</v>
       </c>
       <c r="E11" t="n">
-        <v>2.534024000167847</v>
+        <v>2.093994140625</v>
       </c>
       <c r="F11" t="n">
-        <v>-1.341526985168457</v>
+        <v>-0.9678216576576233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.7926800847053528</v>
+        <v>25.3680477142334</v>
       </c>
       <c r="B12" t="n">
-        <v>3.523231029510498</v>
+        <v>33.55928421020508</v>
       </c>
       <c r="C12" t="n">
-        <v>-2.65040111541748</v>
+        <v>16.88896942138672</v>
       </c>
       <c r="D12" t="n">
-        <v>17.39332008361816</v>
+        <v>52.58785247802734</v>
       </c>
       <c r="E12" t="n">
-        <v>2.849843740463257</v>
+        <v>2.88641357421875</v>
       </c>
       <c r="F12" t="n">
-        <v>0.992060124874115</v>
+        <v>4.25694751739502</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.8934871554374695</v>
+        <v>22.03579902648926</v>
       </c>
       <c r="B13" t="n">
-        <v>5.069366931915283</v>
+        <v>36.57408905029297</v>
       </c>
       <c r="C13" t="n">
-        <v>-4.854944705963135</v>
+        <v>13.68052101135254</v>
       </c>
       <c r="D13" t="n">
-        <v>13.96414279937744</v>
+        <v>46.03559112548828</v>
       </c>
       <c r="E13" t="n">
-        <v>3.210505962371826</v>
+        <v>3.880746841430664</v>
       </c>
       <c r="F13" t="n">
-        <v>2.516113996505737</v>
+        <v>7.707714080810547</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-2.638785123825073</v>
+        <v>18.90237236022949</v>
       </c>
       <c r="B14" t="n">
-        <v>5.972886085510254</v>
+        <v>37.85823822021484</v>
       </c>
       <c r="C14" t="n">
-        <v>-7.017117500305176</v>
+        <v>11.9814920425415</v>
       </c>
       <c r="D14" t="n">
-        <v>9.918596267700195</v>
+        <v>40.47943496704102</v>
       </c>
       <c r="E14" t="n">
-        <v>3.417554616928101</v>
+        <v>4.575222015380859</v>
       </c>
       <c r="F14" t="n">
-        <v>3.608906030654907</v>
+        <v>9.323368072509766</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-4.601992607116699</v>
+        <v>15.14071846008301</v>
       </c>
       <c r="B15" t="n">
-        <v>6.523605346679688</v>
+        <v>39.28754806518555</v>
       </c>
       <c r="C15" t="n">
-        <v>-8.608768463134766</v>
+        <v>9.709484100341797</v>
       </c>
       <c r="D15" t="n">
-        <v>5.341247081756592</v>
+        <v>33.87358474731445</v>
       </c>
       <c r="E15" t="n">
-        <v>3.857470273971558</v>
+        <v>5.543675422668457</v>
       </c>
       <c r="F15" t="n">
-        <v>4.247852802276611</v>
+        <v>10.06112098693848</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-6.309756278991699</v>
+        <v>12.64749336242676</v>
       </c>
       <c r="B16" t="n">
-        <v>7.177949905395508</v>
+        <v>40.50450897216797</v>
       </c>
       <c r="C16" t="n">
-        <v>-10.45512390136719</v>
+        <v>6.569802284240723</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8494921326637268</v>
+        <v>25.79147338867188</v>
       </c>
       <c r="E16" t="n">
-        <v>4.667312145233154</v>
+        <v>6.460330963134766</v>
       </c>
       <c r="F16" t="n">
-        <v>4.062829494476318</v>
+        <v>9.731117248535156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-8.045082092285156</v>
+        <v>10.01574516296387</v>
       </c>
       <c r="B17" t="n">
-        <v>7.365865707397461</v>
+        <v>40.71315383911133</v>
       </c>
       <c r="C17" t="n">
-        <v>-12.14638900756836</v>
+        <v>5.272473335266113</v>
       </c>
       <c r="D17" t="n">
-        <v>-3.503448247909546</v>
+        <v>19.16131401062012</v>
       </c>
       <c r="E17" t="n">
-        <v>5.791376113891602</v>
+        <v>8.842585563659668</v>
       </c>
       <c r="F17" t="n">
-        <v>4.000155925750732</v>
+        <v>8.960141181945801</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-9.690492630004883</v>
+        <v>6.971088886260986</v>
       </c>
       <c r="B18" t="n">
-        <v>7.097647190093994</v>
+        <v>41.63319778442383</v>
       </c>
       <c r="C18" t="n">
-        <v>-12.84456157684326</v>
+        <v>5.018218040466309</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.249338150024414</v>
+        <v>13.44222736358643</v>
       </c>
       <c r="E18" t="n">
-        <v>6.203009128570557</v>
+        <v>11.36407375335693</v>
       </c>
       <c r="F18" t="n">
-        <v>3.617107629776001</v>
+        <v>7.254469871520996</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-10.80936050415039</v>
+        <v>4.686985492706299</v>
       </c>
       <c r="B19" t="n">
-        <v>7.177886962890625</v>
+        <v>41.97114562988281</v>
       </c>
       <c r="C19" t="n">
-        <v>-13.33136177062988</v>
+        <v>4.971388816833496</v>
       </c>
       <c r="D19" t="n">
-        <v>-10.70199871063232</v>
+        <v>8.054232597351074</v>
       </c>
       <c r="E19" t="n">
-        <v>8.054083824157715</v>
+        <v>14.34562969207764</v>
       </c>
       <c r="F19" t="n">
-        <v>3.031307458877563</v>
+        <v>5.86252498626709</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-12.70416641235352</v>
+        <v>1.832767963409424</v>
       </c>
       <c r="B20" t="n">
-        <v>7.647745132446289</v>
+        <v>41.28859710693359</v>
       </c>
       <c r="C20" t="n">
-        <v>-13.75764560699463</v>
+        <v>4.781235694885254</v>
       </c>
       <c r="D20" t="n">
-        <v>-13.27075576782227</v>
+        <v>4.611674308776855</v>
       </c>
       <c r="E20" t="n">
-        <v>9.497502326965332</v>
+        <v>16.30778503417969</v>
       </c>
       <c r="F20" t="n">
-        <v>2.721315383911133</v>
+        <v>4.617055892944336</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-13.531982421875</v>
+        <v>-0.3239149451255798</v>
       </c>
       <c r="B21" t="n">
-        <v>7.944211006164551</v>
+        <v>41.54643249511719</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.8826379776001</v>
+        <v>5.452055931091309</v>
       </c>
       <c r="D21" t="n">
-        <v>-15.18706607818604</v>
+        <v>2.375834703445435</v>
       </c>
       <c r="E21" t="n">
-        <v>10.42386817932129</v>
+        <v>19.25618553161621</v>
       </c>
       <c r="F21" t="n">
-        <v>2.603630542755127</v>
+        <v>3.339811325073242</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-14.74925994873047</v>
+        <v>-1.91061544418335</v>
       </c>
       <c r="B22" t="n">
-        <v>8.082003593444824</v>
+        <v>41.572998046875</v>
       </c>
       <c r="C22" t="n">
-        <v>-13.16686725616455</v>
+        <v>6.777968406677246</v>
       </c>
       <c r="D22" t="n">
-        <v>-15.93988704681396</v>
+        <v>0.8485575914382935</v>
       </c>
       <c r="E22" t="n">
-        <v>11.77035808563232</v>
+        <v>21.0969409942627</v>
       </c>
       <c r="F22" t="n">
-        <v>1.879462122917175</v>
+        <v>1.804498553276062</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-15.80305194854736</v>
+        <v>-3.016273021697998</v>
       </c>
       <c r="B23" t="n">
-        <v>7.988265037536621</v>
+        <v>41.06088638305664</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.19487953186035</v>
+        <v>8.126015663146973</v>
       </c>
       <c r="D23" t="n">
-        <v>-15.57211208343506</v>
+        <v>0.6905261278152466</v>
       </c>
       <c r="E23" t="n">
-        <v>12.50299739837646</v>
+        <v>23.12211990356445</v>
       </c>
       <c r="F23" t="n">
-        <v>1.046570777893066</v>
+        <v>-1.046138882637024</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-16.75481605529785</v>
+        <v>-4.120917797088623</v>
       </c>
       <c r="B24" t="n">
-        <v>8.047988891601562</v>
+        <v>40.66336822509766</v>
       </c>
       <c r="C24" t="n">
-        <v>-10.75833797454834</v>
+        <v>11.25333023071289</v>
       </c>
       <c r="D24" t="n">
-        <v>-13.80334091186523</v>
+        <v>1.544329762458801</v>
       </c>
       <c r="E24" t="n">
-        <v>12.16073322296143</v>
+        <v>21.72876358032227</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.2394823431968689</v>
+        <v>-5.275559902191162</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-17.38851547241211</v>
+        <v>-3.536782741546631</v>
       </c>
       <c r="B25" t="n">
-        <v>8.311727523803711</v>
+        <v>40.69784927368164</v>
       </c>
       <c r="C25" t="n">
-        <v>-8.972495079040527</v>
+        <v>14.82970523834229</v>
       </c>
       <c r="D25" t="n">
-        <v>-11.66451358795166</v>
+        <v>3.99366307258606</v>
       </c>
       <c r="E25" t="n">
-        <v>10.8249979019165</v>
+        <v>18.07732200622559</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.29981541633606</v>
+        <v>-10.45176982879639</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-16.62008857727051</v>
+        <v>-4.455953121185303</v>
       </c>
       <c r="B26" t="n">
-        <v>8.778017997741699</v>
+        <v>40.86235809326172</v>
       </c>
       <c r="C26" t="n">
-        <v>-6.62871265411377</v>
+        <v>19.36747360229492</v>
       </c>
       <c r="D26" t="n">
-        <v>-9.11431884765625</v>
+        <v>7.279704093933105</v>
       </c>
       <c r="E26" t="n">
-        <v>8.212923049926758</v>
+        <v>11.12841320037842</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.635936737060547</v>
+        <v>-15.27199459075928</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-15.7777795791626</v>
+        <v>-4.48085355758667</v>
       </c>
       <c r="B27" t="n">
-        <v>8.781952857971191</v>
+        <v>39.90496826171875</v>
       </c>
       <c r="C27" t="n">
-        <v>-3.895225286483765</v>
+        <v>24.11360549926758</v>
       </c>
       <c r="D27" t="n">
-        <v>-6.083004951477051</v>
+        <v>11.22224998474121</v>
       </c>
       <c r="E27" t="n">
-        <v>3.730226278305054</v>
+        <v>0.06169081479310989</v>
       </c>
       <c r="F27" t="n">
-        <v>-6.099629878997803</v>
+        <v>-18.5833568572998</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-15.42221736907959</v>
+        <v>-2.427024364471436</v>
       </c>
       <c r="B28" t="n">
-        <v>9.362601280212402</v>
+        <v>39.63703918457031</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.5667333602905273</v>
+        <v>29.96829223632812</v>
       </c>
       <c r="D28" t="n">
-        <v>-2.610079288482666</v>
+        <v>14.07053661346436</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.649367570877075</v>
+        <v>-13.59411907196045</v>
       </c>
       <c r="F28" t="n">
-        <v>-7.121743202209473</v>
+        <v>-21.94416427612305</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-13.65951633453369</v>
+        <v>0.1892724633216858</v>
       </c>
       <c r="B29" t="n">
-        <v>9.716821670532227</v>
+        <v>39.72583770751953</v>
       </c>
       <c r="C29" t="n">
-        <v>3.809675455093384</v>
+        <v>36.46620178222656</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.24762924015522</v>
+        <v>16.77581977844238</v>
       </c>
       <c r="E29" t="n">
-        <v>-6.500363826751709</v>
+        <v>-25.5750846862793</v>
       </c>
       <c r="F29" t="n">
-        <v>-7.766562938690186</v>
+        <v>-22.59587097167969</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-12.07058811187744</v>
+        <v>3.08867883682251</v>
       </c>
       <c r="B30" t="n">
-        <v>9.381966590881348</v>
+        <v>38.59163284301758</v>
       </c>
       <c r="C30" t="n">
-        <v>7.502820491790771</v>
+        <v>43.13700866699219</v>
       </c>
       <c r="D30" t="n">
-        <v>1.598934769630432</v>
+        <v>19.59628677368164</v>
       </c>
       <c r="E30" t="n">
-        <v>-10.63213348388672</v>
+        <v>-35.02311706542969</v>
       </c>
       <c r="F30" t="n">
-        <v>-7.719695568084717</v>
+        <v>-22.10854148864746</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-10.07695865631104</v>
+        <v>6.743950366973877</v>
       </c>
       <c r="B31" t="n">
-        <v>8.637776374816895</v>
+        <v>36.42839813232422</v>
       </c>
       <c r="C31" t="n">
-        <v>11.92327499389648</v>
+        <v>50.01366806030273</v>
       </c>
       <c r="D31" t="n">
-        <v>2.898235559463501</v>
+        <v>20.69139099121094</v>
       </c>
       <c r="E31" t="n">
-        <v>-13.90880012512207</v>
+        <v>-41.68972778320312</v>
       </c>
       <c r="F31" t="n">
-        <v>-6.516972064971924</v>
+        <v>-19.58959007263184</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-7.122321605682373</v>
+        <v>10.51762866973877</v>
       </c>
       <c r="B32" t="n">
-        <v>7.912570953369141</v>
+        <v>34.68154525756836</v>
       </c>
       <c r="C32" t="n">
-        <v>16.23288726806641</v>
+        <v>56.22793197631836</v>
       </c>
       <c r="D32" t="n">
-        <v>2.765503406524658</v>
+        <v>21.08149147033691</v>
       </c>
       <c r="E32" t="n">
-        <v>-15.24597835540771</v>
+        <v>-44.44338607788086</v>
       </c>
       <c r="F32" t="n">
-        <v>-5.021154403686523</v>
+        <v>-16.37572860717773</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-4.973201274871826</v>
+        <v>14.45706176757812</v>
       </c>
       <c r="B33" t="n">
-        <v>6.592144012451172</v>
+        <v>32.29150009155273</v>
       </c>
       <c r="C33" t="n">
-        <v>19.6562614440918</v>
+        <v>62.07124328613281</v>
       </c>
       <c r="D33" t="n">
-        <v>2.487448453903198</v>
+        <v>19.88162803649902</v>
       </c>
       <c r="E33" t="n">
-        <v>-14.37773036956787</v>
+        <v>-42.18615341186523</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.33639931678772</v>
+        <v>-12.60782909393311</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-1.715622186660767</v>
+        <v>18.589599609375</v>
       </c>
       <c r="B34" t="n">
-        <v>5.073657512664795</v>
+        <v>29.30594444274902</v>
       </c>
       <c r="C34" t="n">
-        <v>23.07125854492188</v>
+        <v>65.68778228759766</v>
       </c>
       <c r="D34" t="n">
-        <v>1.199739336967468</v>
+        <v>18.71111106872559</v>
       </c>
       <c r="E34" t="n">
-        <v>-11.4192533493042</v>
+        <v>-36.38571548461914</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.873016834259033</v>
+        <v>-9.757606506347656</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.2774711549282074</v>
+        <v>23.02678108215332</v>
       </c>
       <c r="B35" t="n">
-        <v>3.431948661804199</v>
+        <v>26.18229293823242</v>
       </c>
       <c r="C35" t="n">
-        <v>24.97247695922852</v>
+        <v>68.39710235595703</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.4236861169338226</v>
+        <v>15.50704002380371</v>
       </c>
       <c r="E35" t="n">
-        <v>-7.807916164398193</v>
+        <v>-27.0705623626709</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.03648042678833</v>
+        <v>-7.748767375946045</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>2.631307601928711</v>
+        <v>26.8995361328125</v>
       </c>
       <c r="B36" t="n">
-        <v>1.63500714302063</v>
+        <v>22.5045108795166</v>
       </c>
       <c r="C36" t="n">
-        <v>25.48965454101562</v>
+        <v>70.03876495361328</v>
       </c>
       <c r="D36" t="n">
-        <v>-2.478709936141968</v>
+        <v>12.86746215820312</v>
       </c>
       <c r="E36" t="n">
-        <v>-3.342517137527466</v>
+        <v>-19.69804763793945</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.6659826040267944</v>
+        <v>-6.470754146575928</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4.524777412414551</v>
+        <v>30.40485382080078</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.1600048989057541</v>
+        <v>19.37617111206055</v>
       </c>
       <c r="C37" t="n">
-        <v>24.87421989440918</v>
+        <v>69.52864074707031</v>
       </c>
       <c r="D37" t="n">
-        <v>-4.553108215332031</v>
+        <v>10.74472522735596</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.3171649873256683</v>
+        <v>-12.43196868896484</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.02009102888405323</v>
+        <v>-4.907206058502197</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>5.922747611999512</v>
+        <v>33.18398284912109</v>
       </c>
       <c r="B38" t="n">
-        <v>-1.599039554595947</v>
+        <v>16.24651718139648</v>
       </c>
       <c r="C38" t="n">
-        <v>22.44969367980957</v>
+        <v>65.44534301757812</v>
       </c>
       <c r="D38" t="n">
-        <v>-6.389052867889404</v>
+        <v>8.046671867370605</v>
       </c>
       <c r="E38" t="n">
-        <v>2.188632965087891</v>
+        <v>-7.672926425933838</v>
       </c>
       <c r="F38" t="n">
-        <v>0.5663238763809204</v>
+        <v>-4.558578968048096</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>7.060801029205322</v>
+        <v>35.54552841186523</v>
       </c>
       <c r="B39" t="n">
-        <v>-3.174968481063843</v>
+        <v>13.14349555969238</v>
       </c>
       <c r="C39" t="n">
-        <v>19.67084884643555</v>
+        <v>59.0731201171875</v>
       </c>
       <c r="D39" t="n">
-        <v>-8.359184265136719</v>
+        <v>6.539298057556152</v>
       </c>
       <c r="E39" t="n">
-        <v>3.674484968185425</v>
+        <v>-5.287352085113525</v>
       </c>
       <c r="F39" t="n">
-        <v>1.3731529712677</v>
+        <v>-2.484563827514648</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>8.037942886352539</v>
+        <v>36.51002883911133</v>
       </c>
       <c r="B40" t="n">
-        <v>-4.9918212890625</v>
+        <v>9.840367317199707</v>
       </c>
       <c r="C40" t="n">
-        <v>16.0218391418457</v>
+        <v>51.85863494873047</v>
       </c>
       <c r="D40" t="n">
-        <v>-9.272360801696777</v>
+        <v>4.282912254333496</v>
       </c>
       <c r="E40" t="n">
-        <v>3.973660469055176</v>
+        <v>-4.655836582183838</v>
       </c>
       <c r="F40" t="n">
-        <v>2.227061033248901</v>
+        <v>-0.790739119052887</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>7.347010612487793</v>
+        <v>37.76142501831055</v>
       </c>
       <c r="B41" t="n">
-        <v>-6.391926765441895</v>
+        <v>7.19057559967041</v>
       </c>
       <c r="C41" t="n">
-        <v>10.2738037109375</v>
+        <v>43.26937103271484</v>
       </c>
       <c r="D41" t="n">
-        <v>-10.35101509094238</v>
+        <v>3.471352815628052</v>
       </c>
       <c r="E41" t="n">
-        <v>3.725100755691528</v>
+        <v>-5.880768775939941</v>
       </c>
       <c r="F41" t="n">
-        <v>3.51511287689209</v>
+        <v>2.355484962463379</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>7.248263359069824</v>
+        <v>38.41797256469727</v>
       </c>
       <c r="B42" t="n">
-        <v>-7.743845462799072</v>
+        <v>5.338618278503418</v>
       </c>
       <c r="C42" t="n">
-        <v>4.795399188995361</v>
+        <v>36.25976943969727</v>
       </c>
       <c r="D42" t="n">
-        <v>-10.94252490997314</v>
+        <v>2.681859254837036</v>
       </c>
       <c r="E42" t="n">
-        <v>2.83946418762207</v>
+        <v>-7.417356967926025</v>
       </c>
       <c r="F42" t="n">
-        <v>4.936104774475098</v>
+        <v>5.384495735168457</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>6.619554042816162</v>
+        <v>39.06864166259766</v>
       </c>
       <c r="B43" t="n">
-        <v>-8.824971199035645</v>
+        <v>2.988590955734253</v>
       </c>
       <c r="C43" t="n">
-        <v>-0.46294105052948</v>
+        <v>27.82309722900391</v>
       </c>
       <c r="D43" t="n">
-        <v>-11.50856876373291</v>
+        <v>2.037141084671021</v>
       </c>
       <c r="E43" t="n">
-        <v>1.643484950065613</v>
+        <v>-9.543208122253418</v>
       </c>
       <c r="F43" t="n">
-        <v>5.823633193969727</v>
+        <v>8.755675315856934</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>7.121760368347168</v>
+        <v>38.63401031494141</v>
       </c>
       <c r="B44" t="n">
-        <v>-10.67683219909668</v>
+        <v>-0.2312442660331726</v>
       </c>
       <c r="C44" t="n">
-        <v>-5.130385398864746</v>
+        <v>20.09409523010254</v>
       </c>
       <c r="D44" t="n">
-        <v>-11.68194007873535</v>
+        <v>2.461123704910278</v>
       </c>
       <c r="E44" t="n">
-        <v>0.5174071788787842</v>
+        <v>-10.83812046051025</v>
       </c>
       <c r="F44" t="n">
-        <v>7.403834342956543</v>
+        <v>11.37013244628906</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>5.881379127502441</v>
+        <v>38.83124923706055</v>
       </c>
       <c r="B45" t="n">
-        <v>-11.72382926940918</v>
+        <v>-2.488602876663208</v>
       </c>
       <c r="C45" t="n">
-        <v>-8.815037727355957</v>
+        <v>14.36460781097412</v>
       </c>
       <c r="D45" t="n">
-        <v>-12.03645515441895</v>
+        <v>2.632756471633911</v>
       </c>
       <c r="E45" t="n">
-        <v>0.1222083196043968</v>
+        <v>-12.41469573974609</v>
       </c>
       <c r="F45" t="n">
-        <v>8.565084457397461</v>
+        <v>14.02117156982422</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>5.578128337860107</v>
+        <v>37.79476928710938</v>
       </c>
       <c r="B46" t="n">
-        <v>-13.13071060180664</v>
+        <v>-4.848978996276855</v>
       </c>
       <c r="C46" t="n">
-        <v>-11.45449161529541</v>
+        <v>9.031262397766113</v>
       </c>
       <c r="D46" t="n">
-        <v>-12.10240077972412</v>
+        <v>3.99787449836731</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.6032782793045044</v>
+        <v>-12.5343132019043</v>
       </c>
       <c r="F46" t="n">
-        <v>10.0490550994873</v>
+        <v>16.73869132995605</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>5.3678879737854</v>
+        <v>38.80994033813477</v>
       </c>
       <c r="B47" t="n">
-        <v>-14.83287906646729</v>
+        <v>-7.09157657623291</v>
       </c>
       <c r="C47" t="n">
-        <v>-12.21381282806396</v>
+        <v>6.82640552520752</v>
       </c>
       <c r="D47" t="n">
-        <v>-11.53305721282959</v>
+        <v>4.096255302429199</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.8836374282836914</v>
+        <v>-12.61064338684082</v>
       </c>
       <c r="F47" t="n">
-        <v>10.46058368682861</v>
+        <v>18.63621711730957</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>5.056629657745361</v>
+        <v>39.02190399169922</v>
       </c>
       <c r="B48" t="n">
-        <v>-15.79457378387451</v>
+        <v>-9.308527946472168</v>
       </c>
       <c r="C48" t="n">
-        <v>-12.57226753234863</v>
+        <v>5.614455223083496</v>
       </c>
       <c r="D48" t="n">
-        <v>-11.38699626922607</v>
+        <v>5.631234169006348</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.456514120101929</v>
+        <v>-12.77240180969238</v>
       </c>
       <c r="F48" t="n">
-        <v>11.33495330810547</v>
+        <v>19.55679130554199</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>6.03277587890625</v>
+        <v>39.18300628662109</v>
       </c>
       <c r="B49" t="n">
-        <v>-16.76822853088379</v>
+        <v>-11.48118114471436</v>
       </c>
       <c r="C49" t="n">
-        <v>-11.15813064575195</v>
+        <v>6.562134742736816</v>
       </c>
       <c r="D49" t="n">
-        <v>-10.07028102874756</v>
+        <v>7.918883323669434</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.740693926811218</v>
+        <v>-13.81792545318604</v>
       </c>
       <c r="F49" t="n">
-        <v>10.87351417541504</v>
+        <v>18.87978172302246</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>6.274719715118408</v>
+        <v>41.25902557373047</v>
       </c>
       <c r="B50" t="n">
-        <v>-17.11568450927734</v>
+        <v>-11.55554866790771</v>
       </c>
       <c r="C50" t="n">
-        <v>-10.19260692596436</v>
+        <v>7.180045127868652</v>
       </c>
       <c r="D50" t="n">
-        <v>-8.686324119567871</v>
+        <v>9.999266624450684</v>
       </c>
       <c r="E50" t="n">
-        <v>-2.191774606704712</v>
+        <v>-14.4506721496582</v>
       </c>
       <c r="F50" t="n">
-        <v>9.56131649017334</v>
+        <v>16.20607376098633</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>8.024674415588379</v>
+        <v>42.05284118652344</v>
       </c>
       <c r="B51" t="n">
-        <v>-17.24507141113281</v>
+        <v>-12.57676219940186</v>
       </c>
       <c r="C51" t="n">
-        <v>-9.452536582946777</v>
+        <v>9.516197204589844</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.051851749420166</v>
+        <v>13.74620532989502</v>
       </c>
       <c r="E51" t="n">
-        <v>-2.669994592666626</v>
+        <v>-16.29654502868652</v>
       </c>
       <c r="F51" t="n">
-        <v>7.642833709716797</v>
+        <v>9.987735748291016</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>8.043373107910156</v>
+        <v>42.74128341674805</v>
       </c>
       <c r="B52" t="n">
-        <v>-17.38207626342773</v>
+        <v>-11.92016124725342</v>
       </c>
       <c r="C52" t="n">
-        <v>-7.299546241760254</v>
+        <v>11.44449138641357</v>
       </c>
       <c r="D52" t="n">
-        <v>-4.178162574768066</v>
+        <v>17.81077003479004</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.587517499923706</v>
+        <v>-18.77314567565918</v>
       </c>
       <c r="F52" t="n">
-        <v>3.780940294265747</v>
+        <v>1.445204138755798</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>8.801066398620605</v>
+        <v>41.66027069091797</v>
       </c>
       <c r="B53" t="n">
-        <v>-12.96201992034912</v>
+        <v>5.714255332946777</v>
       </c>
       <c r="C53" t="n">
-        <v>-5.712982177734375</v>
+        <v>11.87730312347412</v>
       </c>
       <c r="D53" t="n">
-        <v>2.224687099456787</v>
+        <v>28.29461097717285</v>
       </c>
       <c r="E53" t="n">
-        <v>-5.816305160522461</v>
+        <v>-19.9407844543457</v>
       </c>
       <c r="F53" t="n">
-        <v>2.715558052062988</v>
+        <v>9.898894309997559</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>9.443328857421875</v>
+        <v>41.86482620239258</v>
       </c>
       <c r="B54" t="n">
-        <v>-11.32654285430908</v>
+        <v>8.173245429992676</v>
       </c>
       <c r="C54" t="n">
-        <v>-2.313361167907715</v>
+        <v>16.14275550842285</v>
       </c>
       <c r="D54" t="n">
-        <v>6.328023910522461</v>
+        <v>34.15385437011719</v>
       </c>
       <c r="E54" t="n">
-        <v>-6.456310272216797</v>
+        <v>-20.75769996643066</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.6864689588546753</v>
+        <v>1.408690810203552</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>9.407512664794922</v>
+        <v>41.47271728515625</v>
       </c>
       <c r="B55" t="n">
-        <v>-10.33748245239258</v>
+        <v>10.59112071990967</v>
       </c>
       <c r="C55" t="n">
-        <v>0.5210914611816406</v>
+        <v>19.85662651062012</v>
       </c>
       <c r="D55" t="n">
-        <v>10.46606254577637</v>
+        <v>40.33811187744141</v>
       </c>
       <c r="E55" t="n">
-        <v>-6.331920146942139</v>
+        <v>-20.34235191345215</v>
       </c>
       <c r="F55" t="n">
-        <v>-4.402866840362549</v>
+        <v>-6.789875984191895</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10.2070255279541</v>
+        <v>41.11247634887695</v>
       </c>
       <c r="B56" t="n">
-        <v>-8.371120452880859</v>
+        <v>13.24713039398193</v>
       </c>
       <c r="C56" t="n">
-        <v>3.117235898971558</v>
+        <v>23.32840919494629</v>
       </c>
       <c r="D56" t="n">
-        <v>13.89845848083496</v>
+        <v>45.61760711669922</v>
       </c>
       <c r="E56" t="n">
-        <v>-5.32555627822876</v>
+        <v>-18.25964546203613</v>
       </c>
       <c r="F56" t="n">
-        <v>-7.686487674713135</v>
+        <v>-13.78517627716064</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>9.564299583435059</v>
+        <v>39.87834167480469</v>
       </c>
       <c r="B57" t="n">
-        <v>-7.194793224334717</v>
+        <v>16.56294250488281</v>
       </c>
       <c r="C57" t="n">
-        <v>4.182365894317627</v>
+        <v>25.04696655273438</v>
       </c>
       <c r="D57" t="n">
-        <v>17.48284339904785</v>
+        <v>51.29567337036133</v>
       </c>
       <c r="E57" t="n">
-        <v>-4.175756931304932</v>
+        <v>-15.31161880493164</v>
       </c>
       <c r="F57" t="n">
-        <v>-9.394804954528809</v>
+        <v>-17.80670166015625</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>8.462708473205566</v>
+        <v>38.3289794921875</v>
       </c>
       <c r="B58" t="n">
-        <v>-4.960101127624512</v>
+        <v>20.01612663269043</v>
       </c>
       <c r="C58" t="n">
-        <v>4.371466636657715</v>
+        <v>25.7871036529541</v>
       </c>
       <c r="D58" t="n">
-        <v>20.84097671508789</v>
+        <v>55.37516784667969</v>
       </c>
       <c r="E58" t="n">
-        <v>-2.675982713699341</v>
+        <v>-11.44155120849609</v>
       </c>
       <c r="F58" t="n">
-        <v>-9.435537338256836</v>
+        <v>-17.86878395080566</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>7.085413455963135</v>
+        <v>36.24468994140625</v>
       </c>
       <c r="B59" t="n">
-        <v>-2.758881807327271</v>
+        <v>22.70895004272461</v>
       </c>
       <c r="C59" t="n">
-        <v>3.919263124465942</v>
+        <v>24.92633247375488</v>
       </c>
       <c r="D59" t="n">
-        <v>22.9317684173584</v>
+        <v>57.91753387451172</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.8789153099060059</v>
+        <v>-6.897693634033203</v>
       </c>
       <c r="F59" t="n">
-        <v>-8.881241798400879</v>
+        <v>-16.6817798614502</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>5.694035530090332</v>
+        <v>33.90213394165039</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.9743279814720154</v>
+        <v>25.67666435241699</v>
       </c>
       <c r="C60" t="n">
-        <v>2.826760530471802</v>
+        <v>23.79082679748535</v>
       </c>
       <c r="D60" t="n">
-        <v>23.12038421630859</v>
+        <v>58.0374641418457</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5526212453842163</v>
+        <v>-3.010539054870605</v>
       </c>
       <c r="F60" t="n">
-        <v>-6.485862255096436</v>
+        <v>-11.13724136352539</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>4.29817008972168</v>
+        <v>31.05230331420898</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5052193403244019</v>
+        <v>29.16733741760254</v>
       </c>
       <c r="C61" t="n">
-        <v>1.405891895294189</v>
+        <v>21.83821868896484</v>
       </c>
       <c r="D61" t="n">
-        <v>22.12164497375488</v>
+        <v>59.37545776367188</v>
       </c>
       <c r="E61" t="n">
-        <v>1.979445934295654</v>
+        <v>-0.592348575592041</v>
       </c>
       <c r="F61" t="n">
-        <v>-4.199968338012695</v>
+        <v>-5.984747886657715</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>2.616041898727417</v>
+        <v>27.61283493041992</v>
       </c>
       <c r="B62" t="n">
-        <v>2.252939224243164</v>
+        <v>31.8243350982666</v>
       </c>
       <c r="C62" t="n">
-        <v>-0.8019842505455017</v>
+        <v>19.43415832519531</v>
       </c>
       <c r="D62" t="n">
-        <v>20.19505310058594</v>
+        <v>56.47726440429688</v>
       </c>
       <c r="E62" t="n">
-        <v>2.497663974761963</v>
+        <v>1.645162582397461</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.157404184341431</v>
+        <v>-0.1217485144734383</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.7931895852088928</v>
+        <v>25.06080055236816</v>
       </c>
       <c r="B63" t="n">
-        <v>3.416107177734375</v>
+        <v>33.95565032958984</v>
       </c>
       <c r="C63" t="n">
-        <v>-2.736334800720215</v>
+        <v>16.4388427734375</v>
       </c>
       <c r="D63" t="n">
-        <v>17.39232063293457</v>
+        <v>52.02052688598633</v>
       </c>
       <c r="E63" t="n">
-        <v>2.835140705108643</v>
+        <v>2.67099666595459</v>
       </c>
       <c r="F63" t="n">
-        <v>1.13473916053772</v>
+        <v>5.156999588012695</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>-0.9161272644996643</v>
+        <v>21.88424682617188</v>
       </c>
       <c r="B64" t="n">
-        <v>4.944242000579834</v>
+        <v>36.74324035644531</v>
       </c>
       <c r="C64" t="n">
-        <v>-4.916597366333008</v>
+        <v>13.60188961029053</v>
       </c>
       <c r="D64" t="n">
-        <v>13.95864486694336</v>
+        <v>45.88318252563477</v>
       </c>
       <c r="E64" t="n">
-        <v>3.213962554931641</v>
+        <v>3.564420700073242</v>
       </c>
       <c r="F64" t="n">
-        <v>2.664046764373779</v>
+        <v>8.643040657043457</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-2.696273803710938</v>
+        <v>18.60438919067383</v>
       </c>
       <c r="B65" t="n">
-        <v>5.860812664031982</v>
+        <v>38.1265983581543</v>
       </c>
       <c r="C65" t="n">
-        <v>-7.087224960327148</v>
+        <v>11.55081844329834</v>
       </c>
       <c r="D65" t="n">
-        <v>9.887412071228027</v>
+        <v>39.83253860473633</v>
       </c>
       <c r="E65" t="n">
-        <v>3.416353702545166</v>
+        <v>4.491216659545898</v>
       </c>
       <c r="F65" t="n">
-        <v>3.747753143310547</v>
+        <v>10.17070198059082</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>-4.631396770477295</v>
+        <v>15.05577564239502</v>
       </c>
       <c r="B66" t="n">
-        <v>6.432622909545898</v>
+        <v>39.56690216064453</v>
       </c>
       <c r="C66" t="n">
-        <v>-8.66226863861084</v>
+        <v>9.34135627746582</v>
       </c>
       <c r="D66" t="n">
-        <v>5.334433078765869</v>
+        <v>33.45228576660156</v>
       </c>
       <c r="E66" t="n">
-        <v>3.888810396194458</v>
+        <v>5.461983680725098</v>
       </c>
       <c r="F66" t="n">
-        <v>4.361165046691895</v>
+        <v>10.93725204467773</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-6.337522506713867</v>
+        <v>12.47429466247559</v>
       </c>
       <c r="B67" t="n">
-        <v>7.098298072814941</v>
+        <v>40.74067306518555</v>
       </c>
       <c r="C67" t="n">
-        <v>-10.56451320648193</v>
+        <v>6.524506568908691</v>
       </c>
       <c r="D67" t="n">
-        <v>0.8009431958198547</v>
+        <v>25.38643646240234</v>
       </c>
       <c r="E67" t="n">
-        <v>4.682281494140625</v>
+        <v>6.497518539428711</v>
       </c>
       <c r="F67" t="n">
-        <v>4.117749214172363</v>
+        <v>10.26552391052246</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-8.119331359863281</v>
+        <v>9.672550201416016</v>
       </c>
       <c r="B68" t="n">
-        <v>7.302947044372559</v>
+        <v>40.88406372070312</v>
       </c>
       <c r="C68" t="n">
-        <v>-12.26268005371094</v>
+        <v>5.280671119689941</v>
       </c>
       <c r="D68" t="n">
-        <v>-3.570696592330933</v>
+        <v>18.81070137023926</v>
       </c>
       <c r="E68" t="n">
-        <v>5.828006744384766</v>
+        <v>8.76530933380127</v>
       </c>
       <c r="F68" t="n">
-        <v>4.035590648651123</v>
+        <v>9.509445190429688</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-9.772940635681152</v>
+        <v>6.881195545196533</v>
       </c>
       <c r="B69" t="n">
-        <v>7.038471698760986</v>
+        <v>41.83717727661133</v>
       </c>
       <c r="C69" t="n">
-        <v>-12.97795295715332</v>
+        <v>4.630049705505371</v>
       </c>
       <c r="D69" t="n">
-        <v>-8.302175521850586</v>
+        <v>12.93641376495361</v>
       </c>
       <c r="E69" t="n">
-        <v>6.239548206329346</v>
+        <v>10.86225605010986</v>
       </c>
       <c r="F69" t="n">
-        <v>3.594945669174194</v>
+        <v>7.733822822570801</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-10.86726856231689</v>
+        <v>4.433357715606689</v>
       </c>
       <c r="B70" t="n">
-        <v>7.092305183410645</v>
+        <v>42.03585052490234</v>
       </c>
       <c r="C70" t="n">
-        <v>-13.446457862854</v>
+        <v>4.548718452453613</v>
       </c>
       <c r="D70" t="n">
-        <v>-10.81410503387451</v>
+        <v>7.888480186462402</v>
       </c>
       <c r="E70" t="n">
-        <v>8.095405578613281</v>
+        <v>13.99971294403076</v>
       </c>
       <c r="F70" t="n">
-        <v>3.002708911895752</v>
+        <v>6.31022834777832</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-12.77161979675293</v>
+        <v>1.803726673126221</v>
       </c>
       <c r="B71" t="n">
-        <v>7.58409595489502</v>
+        <v>41.66139221191406</v>
       </c>
       <c r="C71" t="n">
-        <v>-13.88232707977295</v>
+        <v>4.446549415588379</v>
       </c>
       <c r="D71" t="n">
-        <v>-13.37643623352051</v>
+        <v>4.270279884338379</v>
       </c>
       <c r="E71" t="n">
-        <v>9.503540992736816</v>
+        <v>16.17413139343262</v>
       </c>
       <c r="F71" t="n">
-        <v>2.644771337509155</v>
+        <v>4.97382640838623</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-13.60496139526367</v>
+        <v>-0.1390928626060486</v>
       </c>
       <c r="B72" t="n">
-        <v>7.882335662841797</v>
+        <v>41.83320999145508</v>
       </c>
       <c r="C72" t="n">
-        <v>-13.95967292785645</v>
+        <v>5.223895072937012</v>
       </c>
       <c r="D72" t="n">
-        <v>-15.30291080474854</v>
+        <v>1.919013142585754</v>
       </c>
       <c r="E72" t="n">
-        <v>10.47850131988525</v>
+        <v>19.28056335449219</v>
       </c>
       <c r="F72" t="n">
-        <v>2.519070148468018</v>
+        <v>3.45989990234375</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>-14.82245826721191</v>
+        <v>-2.020192623138428</v>
       </c>
       <c r="B73" t="n">
-        <v>7.984951019287109</v>
+        <v>41.66177749633789</v>
       </c>
       <c r="C73" t="n">
-        <v>-13.27526760101318</v>
+        <v>6.338074684143066</v>
       </c>
       <c r="D73" t="n">
-        <v>-16.07257461547852</v>
+        <v>0.5776835680007935</v>
       </c>
       <c r="E73" t="n">
-        <v>11.83121776580811</v>
+        <v>21.13536834716797</v>
       </c>
       <c r="F73" t="n">
-        <v>1.800287127494812</v>
+        <v>1.751146674156189</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>-15.89079761505127</v>
+        <v>-3.0970778465271</v>
       </c>
       <c r="B74" t="n">
-        <v>7.951684951782227</v>
+        <v>41.34002685546875</v>
       </c>
       <c r="C74" t="n">
-        <v>-12.23916149139404</v>
+        <v>7.91018009185791</v>
       </c>
       <c r="D74" t="n">
-        <v>-15.68955135345459</v>
+        <v>0.5593100786209106</v>
       </c>
       <c r="E74" t="n">
-        <v>12.554762840271</v>
+        <v>23.29728698730469</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9708501696586609</v>
+        <v>-0.9880710244178772</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>-16.81599235534668</v>
+        <v>-4.189584255218506</v>
       </c>
       <c r="B75" t="n">
-        <v>8.051767349243164</v>
+        <v>40.93498229980469</v>
       </c>
       <c r="C75" t="n">
-        <v>-10.82275676727295</v>
+        <v>10.93318367004395</v>
       </c>
       <c r="D75" t="n">
-        <v>-13.90546798706055</v>
+        <v>1.291939854621887</v>
       </c>
       <c r="E75" t="n">
-        <v>12.19683361053467</v>
+        <v>22.09516525268555</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.3532264232635498</v>
+        <v>-5.351619243621826</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>-17.43355751037598</v>
+        <v>-3.701035976409912</v>
       </c>
       <c r="B76" t="n">
-        <v>8.379518508911133</v>
+        <v>40.83051300048828</v>
       </c>
       <c r="C76" t="n">
-        <v>-8.967735290527344</v>
+        <v>14.53478908538818</v>
       </c>
       <c r="D76" t="n">
-        <v>-11.75147533416748</v>
+        <v>3.944058656692505</v>
       </c>
       <c r="E76" t="n">
-        <v>10.88498973846436</v>
+        <v>18.40129661560059</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.435823678970337</v>
+        <v>-10.63168334960938</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-16.63212966918945</v>
+        <v>-4.654855251312256</v>
       </c>
       <c r="B77" t="n">
-        <v>8.894023895263672</v>
+        <v>40.78154754638672</v>
       </c>
       <c r="C77" t="n">
-        <v>-6.625640392303467</v>
+        <v>19.1215705871582</v>
       </c>
       <c r="D77" t="n">
-        <v>-9.153933525085449</v>
+        <v>7.04653263092041</v>
       </c>
       <c r="E77" t="n">
-        <v>8.247737884521484</v>
+        <v>11.5828332901001</v>
       </c>
       <c r="F77" t="n">
-        <v>-4.768314838409424</v>
+        <v>-15.4084997177124</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-15.81263256072998</v>
+        <v>-4.753543376922607</v>
       </c>
       <c r="B78" t="n">
-        <v>8.973983764648438</v>
+        <v>39.91086959838867</v>
       </c>
       <c r="C78" t="n">
-        <v>-3.861271142959595</v>
+        <v>23.76655197143555</v>
       </c>
       <c r="D78" t="n">
-        <v>-6.063451290130615</v>
+        <v>10.8759183883667</v>
       </c>
       <c r="E78" t="n">
-        <v>3.750241994857788</v>
+        <v>0.6316280364990234</v>
       </c>
       <c r="F78" t="n">
-        <v>-6.211624622344971</v>
+        <v>-18.92960929870605</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-15.42722606658936</v>
+        <v>-2.657214641571045</v>
       </c>
       <c r="B79" t="n">
-        <v>9.573692321777344</v>
+        <v>39.7293815612793</v>
       </c>
       <c r="C79" t="n">
-        <v>-0.4978802800178528</v>
+        <v>29.79268455505371</v>
       </c>
       <c r="D79" t="n">
-        <v>-2.600987672805786</v>
+        <v>13.75221729278564</v>
       </c>
       <c r="E79" t="n">
-        <v>-1.640890598297119</v>
+        <v>-12.89375400543213</v>
       </c>
       <c r="F79" t="n">
-        <v>-7.221837520599365</v>
+        <v>-22.12615966796875</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>-13.71720886230469</v>
+        <v>0.01528793480247259</v>
       </c>
       <c r="B80" t="n">
-        <v>9.919053077697754</v>
+        <v>39.85685348510742</v>
       </c>
       <c r="C80" t="n">
-        <v>3.91201376914978</v>
+        <v>36.22799682617188</v>
       </c>
       <c r="D80" t="n">
-        <v>-0.1600453406572342</v>
+        <v>16.61093139648438</v>
       </c>
       <c r="E80" t="n">
-        <v>-6.497485637664795</v>
+        <v>-25.08531951904297</v>
       </c>
       <c r="F80" t="n">
-        <v>-7.876372814178467</v>
+        <v>-22.74722480773926</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>-12.08390045166016</v>
+        <v>2.878872394561768</v>
       </c>
       <c r="B81" t="n">
-        <v>9.619794845581055</v>
+        <v>38.66273880004883</v>
       </c>
       <c r="C81" t="n">
-        <v>7.635840892791748</v>
+        <v>42.91667175292969</v>
       </c>
       <c r="D81" t="n">
-        <v>1.760546565055847</v>
+        <v>19.44233894348145</v>
       </c>
       <c r="E81" t="n">
-        <v>-10.66316986083984</v>
+        <v>-34.87874984741211</v>
       </c>
       <c r="F81" t="n">
-        <v>-7.792654514312744</v>
+        <v>-22.20881843566895</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>-10.07236480712891</v>
+        <v>6.613815784454346</v>
       </c>
       <c r="B82" t="n">
-        <v>8.866545677185059</v>
+        <v>36.69639205932617</v>
       </c>
       <c r="C82" t="n">
-        <v>12.07922840118408</v>
+        <v>49.88673400878906</v>
       </c>
       <c r="D82" t="n">
-        <v>3.028420925140381</v>
+        <v>20.70097923278809</v>
       </c>
       <c r="E82" t="n">
-        <v>-13.99698638916016</v>
+        <v>-41.48748016357422</v>
       </c>
       <c r="F82" t="n">
-        <v>-6.558616638183594</v>
+        <v>-19.54515647888184</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-7.138657093048096</v>
+        <v>10.30427074432373</v>
       </c>
       <c r="B83" t="n">
-        <v>8.10515022277832</v>
+        <v>34.89019775390625</v>
       </c>
       <c r="C83" t="n">
-        <v>16.34848785400391</v>
+        <v>56.26132583618164</v>
       </c>
       <c r="D83" t="n">
-        <v>2.958167791366577</v>
+        <v>21.00985908508301</v>
       </c>
       <c r="E83" t="n">
-        <v>-15.2918872833252</v>
+        <v>-44.44751358032227</v>
       </c>
       <c r="F83" t="n">
-        <v>-5.04808521270752</v>
+        <v>-16.18935203552246</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>-4.931166172027588</v>
+        <v>14.33101654052734</v>
       </c>
       <c r="B84" t="n">
-        <v>6.754139423370361</v>
+        <v>32.26984405517578</v>
       </c>
       <c r="C84" t="n">
-        <v>19.82126617431641</v>
+        <v>62.00615692138672</v>
       </c>
       <c r="D84" t="n">
-        <v>2.65544581413269</v>
+        <v>20.19508934020996</v>
       </c>
       <c r="E84" t="n">
-        <v>-14.45810604095459</v>
+        <v>-42.36400985717773</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.306826591491699</v>
+        <v>-12.48004817962646</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>-1.698387145996094</v>
+        <v>18.48239326477051</v>
       </c>
       <c r="B85" t="n">
-        <v>5.210880756378174</v>
+        <v>29.41032409667969</v>
       </c>
       <c r="C85" t="n">
-        <v>23.22634315490723</v>
+        <v>65.92605590820312</v>
       </c>
       <c r="D85" t="n">
-        <v>1.372463345527649</v>
+        <v>18.77359771728516</v>
       </c>
       <c r="E85" t="n">
-        <v>-11.52346611022949</v>
+        <v>-36.44350433349609</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.831185579299927</v>
+        <v>-9.663577079772949</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.3500159680843353</v>
+        <v>22.9129467010498</v>
       </c>
       <c r="B86" t="n">
-        <v>3.552577972412109</v>
+        <v>26.27862167358398</v>
       </c>
       <c r="C86" t="n">
-        <v>25.14180183410645</v>
+        <v>68.53773498535156</v>
       </c>
       <c r="D86" t="n">
-        <v>-0.2705390155315399</v>
+        <v>15.80667400360107</v>
       </c>
       <c r="E86" t="n">
-        <v>-7.979354381561279</v>
+        <v>-27.37647247314453</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.9709969758987427</v>
+        <v>-7.58125638961792</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.700582981109619</v>
+        <v>26.79388236999512</v>
       </c>
       <c r="B87" t="n">
-        <v>1.739386081695557</v>
+        <v>22.76435470581055</v>
       </c>
       <c r="C87" t="n">
-        <v>25.65912628173828</v>
+        <v>70.01865386962891</v>
       </c>
       <c r="D87" t="n">
-        <v>-2.375219583511353</v>
+        <v>13.17279529571533</v>
       </c>
       <c r="E87" t="n">
-        <v>-3.533256530761719</v>
+        <v>-19.45761108398438</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.5566130876541138</v>
+        <v>-6.224298000335693</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>4.589739799499512</v>
+        <v>30.24356269836426</v>
       </c>
       <c r="B88" t="n">
-        <v>-0.07781492173671722</v>
+        <v>19.54141235351562</v>
       </c>
       <c r="C88" t="n">
-        <v>25.0237922668457</v>
+        <v>69.39208221435547</v>
       </c>
       <c r="D88" t="n">
-        <v>-4.461039543151855</v>
+        <v>10.81040287017822</v>
       </c>
       <c r="E88" t="n">
-        <v>-0.484176367521286</v>
+        <v>-12.35257720947266</v>
       </c>
       <c r="F88" t="n">
-        <v>0.08893321454524994</v>
+        <v>-4.85591459274292</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>6.005310535430908</v>
+        <v>33.13337707519531</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.585289597511292</v>
+        <v>16.40596199035645</v>
       </c>
       <c r="C89" t="n">
-        <v>22.62734031677246</v>
+        <v>65.42116546630859</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.363667488098145</v>
+        <v>8.190287590026855</v>
       </c>
       <c r="E89" t="n">
-        <v>2.006867408752441</v>
+        <v>-7.513600826263428</v>
       </c>
       <c r="F89" t="n">
-        <v>0.644494354724884</v>
+        <v>-4.177237510681152</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>7.101255893707275</v>
+        <v>35.30163955688477</v>
       </c>
       <c r="B90" t="n">
-        <v>-3.156379461288452</v>
+        <v>13.19882583618164</v>
       </c>
       <c r="C90" t="n">
-        <v>19.83646965026855</v>
+        <v>59.24931335449219</v>
       </c>
       <c r="D90" t="n">
-        <v>-8.344180107116699</v>
+        <v>6.509800910949707</v>
       </c>
       <c r="E90" t="n">
-        <v>3.535818576812744</v>
+        <v>-5.090756893157959</v>
       </c>
       <c r="F90" t="n">
-        <v>1.443633437156677</v>
+        <v>-2.13261890411377</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>8.087392807006836</v>
+        <v>36.48191833496094</v>
       </c>
       <c r="B91" t="n">
-        <v>-5.039303779602051</v>
+        <v>10.02048492431641</v>
       </c>
       <c r="C91" t="n">
-        <v>16.12973785400391</v>
+        <v>52.07468795776367</v>
       </c>
       <c r="D91" t="n">
-        <v>-9.323620796203613</v>
+        <v>4.324368476867676</v>
       </c>
       <c r="E91" t="n">
-        <v>3.90008282661438</v>
+        <v>-4.363535404205322</v>
       </c>
       <c r="F91" t="n">
-        <v>2.293089628219604</v>
+        <v>-0.4236560463905334</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>7.41972541809082</v>
+        <v>37.60268402099609</v>
       </c>
       <c r="B92" t="n">
-        <v>-6.465781211853027</v>
+        <v>7.379260063171387</v>
       </c>
       <c r="C92" t="n">
-        <v>10.39797306060791</v>
+        <v>43.29569625854492</v>
       </c>
       <c r="D92" t="n">
-        <v>-10.43559837341309</v>
+        <v>3.602118730545044</v>
       </c>
       <c r="E92" t="n">
-        <v>3.674978017807007</v>
+        <v>-5.47282600402832</v>
       </c>
       <c r="F92" t="n">
-        <v>3.56817102432251</v>
+        <v>2.625197410583496</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>7.298433303833008</v>
+        <v>38.28098297119141</v>
       </c>
       <c r="B93" t="n">
-        <v>-7.822311401367188</v>
+        <v>5.246600151062012</v>
       </c>
       <c r="C93" t="n">
-        <v>4.847318172454834</v>
+        <v>36.10567092895508</v>
       </c>
       <c r="D93" t="n">
-        <v>-11.06272983551025</v>
+        <v>2.800063371658325</v>
       </c>
       <c r="E93" t="n">
-        <v>2.845679998397827</v>
+        <v>-7.073415756225586</v>
       </c>
       <c r="F93" t="n">
-        <v>4.975972175598145</v>
+        <v>5.716716766357422</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>6.694106101989746</v>
+        <v>38.62976455688477</v>
       </c>
       <c r="B94" t="n">
-        <v>-8.962612152099609</v>
+        <v>2.755259275436401</v>
       </c>
       <c r="C94" t="n">
-        <v>-0.4029013514518738</v>
+        <v>27.64740562438965</v>
       </c>
       <c r="D94" t="n">
-        <v>-11.6552906036377</v>
+        <v>2.291556596755981</v>
       </c>
       <c r="E94" t="n">
-        <v>1.705107927322388</v>
+        <v>-9.156829833984375</v>
       </c>
       <c r="F94" t="n">
-        <v>5.880917072296143</v>
+        <v>9.025517463684082</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>7.185469627380371</v>
+        <v>38.66986465454102</v>
       </c>
       <c r="B95" t="n">
-        <v>-10.81114196777344</v>
+        <v>-0.1602813601493835</v>
       </c>
       <c r="C95" t="n">
-        <v>-5.136703014373779</v>
+        <v>19.99029350280762</v>
       </c>
       <c r="D95" t="n">
-        <v>-11.81897926330566</v>
+        <v>2.488099336624146</v>
       </c>
       <c r="E95" t="n">
-        <v>0.6254134178161621</v>
+        <v>-10.70673942565918</v>
       </c>
       <c r="F95" t="n">
-        <v>7.451781749725342</v>
+        <v>11.72039031982422</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>5.948175430297852</v>
+        <v>38.7311897277832</v>
       </c>
       <c r="B96" t="n">
-        <v>-11.89730262756348</v>
+        <v>-2.51017689704895</v>
       </c>
       <c r="C96" t="n">
-        <v>-8.772936820983887</v>
+        <v>13.98761558532715</v>
       </c>
       <c r="D96" t="n">
-        <v>-12.18821239471436</v>
+        <v>2.738806962966919</v>
       </c>
       <c r="E96" t="n">
-        <v>0.2475800365209579</v>
+        <v>-12.33973789215088</v>
       </c>
       <c r="F96" t="n">
-        <v>8.581935882568359</v>
+        <v>14.59269523620605</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>5.61775541305542</v>
+        <v>37.74067687988281</v>
       </c>
       <c r="B97" t="n">
-        <v>-13.30197334289551</v>
+        <v>-4.906661033630371</v>
       </c>
       <c r="C97" t="n">
-        <v>-11.51406478881836</v>
+        <v>8.915337562561035</v>
       </c>
       <c r="D97" t="n">
-        <v>-12.28775215148926</v>
+        <v>3.90105938911438</v>
       </c>
       <c r="E97" t="n">
-        <v>-0.4316361248493195</v>
+        <v>-12.57533264160156</v>
       </c>
       <c r="F97" t="n">
-        <v>10.06110763549805</v>
+        <v>17.20311164855957</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>5.404374122619629</v>
+        <v>38.84152984619141</v>
       </c>
       <c r="B98" t="n">
-        <v>-15.01663589477539</v>
+        <v>-7.397076606750488</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.30077648162842</v>
+        <v>6.54581356048584</v>
       </c>
       <c r="D98" t="n">
-        <v>-11.66873836517334</v>
+        <v>4.201409339904785</v>
       </c>
       <c r="E98" t="n">
-        <v>-0.7114714384078979</v>
+        <v>-12.56423091888428</v>
       </c>
       <c r="F98" t="n">
-        <v>10.48774528503418</v>
+        <v>18.95277786254883</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>5.122723579406738</v>
+        <v>38.91777038574219</v>
       </c>
       <c r="B99" t="n">
-        <v>-15.93960762023926</v>
+        <v>-9.54056453704834</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.66917991638184</v>
+        <v>5.525187492370605</v>
       </c>
       <c r="D99" t="n">
-        <v>-11.48405170440674</v>
+        <v>5.686039924621582</v>
       </c>
       <c r="E99" t="n">
-        <v>-1.284045100212097</v>
+        <v>-12.82924175262451</v>
       </c>
       <c r="F99" t="n">
-        <v>11.33358669281006</v>
+        <v>19.95064163208008</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>6.050367832183838</v>
+        <v>39.17829513549805</v>
       </c>
       <c r="B100" t="n">
-        <v>-16.94241333007812</v>
+        <v>-11.42117595672607</v>
       </c>
       <c r="C100" t="n">
-        <v>-11.32820320129395</v>
+        <v>6.305048942565918</v>
       </c>
       <c r="D100" t="n">
-        <v>-10.12422180175781</v>
+        <v>7.793288230895996</v>
       </c>
       <c r="E100" t="n">
-        <v>-1.570823431015015</v>
+        <v>-13.86053657531738</v>
       </c>
       <c r="F100" t="n">
-        <v>10.86722564697266</v>
+        <v>19.34523582458496</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>6.223543167114258</v>
+        <v>40.9294319152832</v>
       </c>
       <c r="B101" t="n">
-        <v>-17.26087188720703</v>
+        <v>-11.80921077728271</v>
       </c>
       <c r="C101" t="n">
-        <v>-10.33204650878906</v>
+        <v>6.694272041320801</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.651332855224609</v>
+        <v>10.04994678497314</v>
       </c>
       <c r="E101" t="n">
-        <v>-2.045425653457642</v>
+        <v>-14.52173137664795</v>
       </c>
       <c r="F101" t="n">
-        <v>9.500411033630371</v>
+        <v>16.99456405639648</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>7.948333740234375</v>
+        <v>41.42394256591797</v>
       </c>
       <c r="B102" t="n">
-        <v>-17.40756607055664</v>
+        <v>-12.52038478851318</v>
       </c>
       <c r="C102" t="n">
-        <v>-9.608592987060547</v>
+        <v>9.13278865814209</v>
       </c>
       <c r="D102" t="n">
-        <v>-6.933350563049316</v>
+        <v>13.81186866760254</v>
       </c>
       <c r="E102" t="n">
-        <v>-2.532684803009033</v>
+        <v>-16.44417953491211</v>
       </c>
       <c r="F102" t="n">
-        <v>7.531406402587891</v>
+        <v>10.71694946289062</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>7.939193725585938</v>
+        <v>42.02781677246094</v>
       </c>
       <c r="B103" t="n">
-        <v>-17.47679328918457</v>
+        <v>-11.85068416595459</v>
       </c>
       <c r="C103" t="n">
-        <v>-7.414447784423828</v>
+        <v>10.94984817504883</v>
       </c>
       <c r="D103" t="n">
-        <v>-4.000232219696045</v>
+        <v>17.9825439453125</v>
       </c>
       <c r="E103" t="n">
-        <v>-3.506079912185669</v>
+        <v>-18.8890266418457</v>
       </c>
       <c r="F103" t="n">
-        <v>3.58559250831604</v>
+        <v>2.457046508789062</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>8.824149131774902</v>
+        <v>41.80789184570312</v>
       </c>
       <c r="B104" t="n">
-        <v>-13.03037548065186</v>
+        <v>5.92356014251709</v>
       </c>
       <c r="C104" t="n">
-        <v>-5.701119899749756</v>
+        <v>11.69986152648926</v>
       </c>
       <c r="D104" t="n">
-        <v>2.09490704536438</v>
+        <v>28.19475936889648</v>
       </c>
       <c r="E104" t="n">
-        <v>-6.001105785369873</v>
+        <v>-20.21999359130859</v>
       </c>
       <c r="F104" t="n">
-        <v>2.909965991973877</v>
+        <v>9.758425712585449</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>9.504892349243164</v>
+        <v>41.92472076416016</v>
       </c>
       <c r="B105" t="n">
-        <v>-11.38301658630371</v>
+        <v>8.357334136962891</v>
       </c>
       <c r="C105" t="n">
-        <v>-2.32781720161438</v>
+        <v>15.98379135131836</v>
       </c>
       <c r="D105" t="n">
-        <v>6.164631366729736</v>
+        <v>34.00471496582031</v>
       </c>
       <c r="E105" t="n">
-        <v>-6.641439437866211</v>
+        <v>-21.04462814331055</v>
       </c>
       <c r="F105" t="n">
-        <v>-0.4461898803710938</v>
+        <v>1.342542052268982</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>9.474963188171387</v>
+        <v>41.50652313232422</v>
       </c>
       <c r="B106" t="n">
-        <v>-10.39471054077148</v>
+        <v>10.86996459960938</v>
       </c>
       <c r="C106" t="n">
-        <v>0.505315899848938</v>
+        <v>19.63438034057617</v>
       </c>
       <c r="D106" t="n">
-        <v>10.30861568450928</v>
+        <v>40.17297744750977</v>
       </c>
       <c r="E106" t="n">
-        <v>-6.515193462371826</v>
+        <v>-20.61652755737305</v>
       </c>
       <c r="F106" t="n">
-        <v>-4.106758594512939</v>
+        <v>-6.741299629211426</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>10.25401496887207</v>
+        <v>41.13259887695312</v>
       </c>
       <c r="B107" t="n">
-        <v>-8.447362899780273</v>
+        <v>13.51110363006592</v>
       </c>
       <c r="C107" t="n">
-        <v>3.057876825332642</v>
+        <v>23.11323928833008</v>
       </c>
       <c r="D107" t="n">
-        <v>13.74829006195068</v>
+        <v>45.55552291870117</v>
       </c>
       <c r="E107" t="n">
-        <v>-5.519264221191406</v>
+        <v>-18.65064430236816</v>
       </c>
       <c r="F107" t="n">
-        <v>-7.360221862792969</v>
+        <v>-13.59193325042725</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>9.63715934753418</v>
+        <v>39.86875534057617</v>
       </c>
       <c r="B108" t="n">
-        <v>-7.253646850585938</v>
+        <v>16.80466651916504</v>
       </c>
       <c r="C108" t="n">
-        <v>4.118424415588379</v>
+        <v>24.79090118408203</v>
       </c>
       <c r="D108" t="n">
-        <v>17.35779571533203</v>
+        <v>51.19778060913086</v>
       </c>
       <c r="E108" t="n">
-        <v>-4.351719856262207</v>
+        <v>-15.64984798431396</v>
       </c>
       <c r="F108" t="n">
-        <v>-9.093142509460449</v>
+        <v>-17.35927200317383</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>8.510065078735352</v>
+        <v>38.28330230712891</v>
       </c>
       <c r="B109" t="n">
-        <v>-5.065046310424805</v>
+        <v>20.22395896911621</v>
       </c>
       <c r="C109" t="n">
-        <v>4.314054012298584</v>
+        <v>25.56829071044922</v>
       </c>
       <c r="D109" t="n">
-        <v>20.73471260070801</v>
+        <v>55.34997177124023</v>
       </c>
       <c r="E109" t="n">
-        <v>-2.806164264678955</v>
+        <v>-11.76918983459473</v>
       </c>
       <c r="F109" t="n">
-        <v>-9.156393051147461</v>
+        <v>-17.26737594604492</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>7.10987663269043</v>
+        <v>36.19897842407227</v>
       </c>
       <c r="B110" t="n">
-        <v>-2.867885828018188</v>
+        <v>23.00240325927734</v>
       </c>
       <c r="C110" t="n">
-        <v>3.884514093399048</v>
+        <v>24.74796485900879</v>
       </c>
       <c r="D110" t="n">
-        <v>22.85273742675781</v>
+        <v>57.78517532348633</v>
       </c>
       <c r="E110" t="n">
-        <v>-0.9708408117294312</v>
+        <v>-7.233768463134766</v>
       </c>
       <c r="F110" t="n">
-        <v>-8.630033493041992</v>
+        <v>-15.92566871643066</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>5.725871562957764</v>
+        <v>33.88116073608398</v>
       </c>
       <c r="B111" t="n">
-        <v>-1.061264872550964</v>
+        <v>25.95288848876953</v>
       </c>
       <c r="C111" t="n">
-        <v>2.778821229934692</v>
+        <v>23.56049156188965</v>
       </c>
       <c r="D111" t="n">
-        <v>23.06726264953613</v>
+        <v>57.89421844482422</v>
       </c>
       <c r="E111" t="n">
-        <v>0.484316498041153</v>
+        <v>-3.374080181121826</v>
       </c>
       <c r="F111" t="n">
-        <v>-6.260303974151611</v>
+        <v>-10.29636478424072</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>4.315122127532959</v>
+        <v>31.03524780273438</v>
       </c>
       <c r="B112" t="n">
-        <v>0.398379921913147</v>
+        <v>29.37844848632812</v>
       </c>
       <c r="C112" t="n">
-        <v>1.363822937011719</v>
+        <v>21.58382225036621</v>
       </c>
       <c r="D112" t="n">
-        <v>22.0800895690918</v>
+        <v>59.0741081237793</v>
       </c>
       <c r="E112" t="n">
-        <v>1.917356014251709</v>
+        <v>-0.898158073425293</v>
       </c>
       <c r="F112" t="n">
-        <v>-4.015523433685303</v>
+        <v>-5.056221485137939</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>2.632285118103027</v>
+        <v>27.58509063720703</v>
       </c>
       <c r="B113" t="n">
-        <v>2.123018026351929</v>
+        <v>32.10744094848633</v>
       </c>
       <c r="C113" t="n">
-        <v>-0.8665164113044739</v>
+        <v>19.19024467468262</v>
       </c>
       <c r="D113" t="n">
-        <v>20.14359092712402</v>
+        <v>56.06332015991211</v>
       </c>
       <c r="E113" t="n">
-        <v>2.460863590240479</v>
+        <v>1.335981369018555</v>
       </c>
       <c r="F113" t="n">
-        <v>-0.984761118888855</v>
+        <v>0.7055286765098572</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>0.8127416968345642</v>
+        <v>24.95816230773926</v>
       </c>
       <c r="B114" t="n">
-        <v>3.298684120178223</v>
+        <v>34.17583847045898</v>
       </c>
       <c r="C114" t="n">
-        <v>-2.826574802398682</v>
+        <v>16.19991683959961</v>
       </c>
       <c r="D114" t="n">
-        <v>17.34626197814941</v>
+        <v>51.53238677978516</v>
       </c>
       <c r="E114" t="n">
-        <v>2.810448408126831</v>
+        <v>2.44294548034668</v>
       </c>
       <c r="F114" t="n">
-        <v>1.278396248817444</v>
+        <v>5.946721076965332</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>-0.9252623319625854</v>
+        <v>21.8142261505127</v>
       </c>
       <c r="B115" t="n">
-        <v>4.817994594573975</v>
+        <v>36.92343139648438</v>
       </c>
       <c r="C115" t="n">
-        <v>-4.997213363647461</v>
+        <v>13.43227195739746</v>
       </c>
       <c r="D115" t="n">
-        <v>13.90420818328857</v>
+        <v>45.50134658813477</v>
       </c>
       <c r="E115" t="n">
-        <v>3.209426641464233</v>
+        <v>3.339113235473633</v>
       </c>
       <c r="F115" t="n">
-        <v>2.803984642028809</v>
+        <v>9.364113807678223</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>-2.728062629699707</v>
+        <v>18.50351333618164</v>
       </c>
       <c r="B116" t="n">
-        <v>5.748958110809326</v>
+        <v>38.26794815063477</v>
       </c>
       <c r="C116" t="n">
-        <v>-7.163964748382568</v>
+        <v>11.29746913909912</v>
       </c>
       <c r="D116" t="n">
-        <v>9.819785118103027</v>
+        <v>39.24736785888672</v>
       </c>
       <c r="E116" t="n">
-        <v>3.413610935211182</v>
+        <v>4.336360931396484</v>
       </c>
       <c r="F116" t="n">
-        <v>3.879334926605225</v>
+        <v>10.82579040527344</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-4.649660110473633</v>
+        <v>15.02097320556641</v>
       </c>
       <c r="B117" t="n">
-        <v>6.329008102416992</v>
+        <v>39.74501037597656</v>
       </c>
       <c r="C117" t="n">
-        <v>-8.739239692687988</v>
+        <v>9.109601974487305</v>
       </c>
       <c r="D117" t="n">
-        <v>5.305733203887939</v>
+        <v>32.90318298339844</v>
       </c>
       <c r="E117" t="n">
-        <v>3.913482904434204</v>
+        <v>5.372932434082031</v>
       </c>
       <c r="F117" t="n">
-        <v>4.47174596786499</v>
+        <v>11.54236602783203</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>-6.357827186584473</v>
+        <v>12.38487911224365</v>
       </c>
       <c r="B118" t="n">
-        <v>7.009305000305176</v>
+        <v>40.88981628417969</v>
       </c>
       <c r="C118" t="n">
-        <v>-10.67094707489014</v>
+        <v>6.397541999816895</v>
       </c>
       <c r="D118" t="n">
-        <v>0.7389408946037292</v>
+        <v>24.82840728759766</v>
       </c>
       <c r="E118" t="n">
-        <v>4.695644855499268</v>
+        <v>6.478334426879883</v>
       </c>
       <c r="F118" t="n">
-        <v>4.179479122161865</v>
+        <v>10.71513557434082</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>-8.175887107849121</v>
+        <v>9.558026313781738</v>
       </c>
       <c r="B119" t="n">
-        <v>7.219894409179688</v>
+        <v>41.04601287841797</v>
       </c>
       <c r="C119" t="n">
-        <v>-12.35508155822754</v>
+        <v>5.176751136779785</v>
       </c>
       <c r="D119" t="n">
-        <v>-3.630960941314697</v>
+        <v>18.28907775878906</v>
       </c>
       <c r="E119" t="n">
-        <v>5.85683012008667</v>
+        <v>8.726996421813965</v>
       </c>
       <c r="F119" t="n">
-        <v>4.07004976272583</v>
+        <v>9.913228034973145</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>-9.830940246582031</v>
+        <v>6.798126697540283</v>
       </c>
       <c r="B120" t="n">
-        <v>6.965353488922119</v>
+        <v>42.01055908203125</v>
       </c>
       <c r="C120" t="n">
-        <v>-13.09966850280762</v>
+        <v>4.438841819763184</v>
       </c>
       <c r="D120" t="n">
-        <v>-8.331974983215332</v>
+        <v>12.41660022735596</v>
       </c>
       <c r="E120" t="n">
-        <v>6.284141540527344</v>
+        <v>10.77783107757568</v>
       </c>
       <c r="F120" t="n">
-        <v>3.577825546264648</v>
+        <v>8.110166549682617</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-10.92803764343262</v>
+        <v>4.324381351470947</v>
       </c>
       <c r="B121" t="n">
-        <v>7.001558780670166</v>
+        <v>42.1610107421875</v>
       </c>
       <c r="C121" t="n">
-        <v>-13.56135654449463</v>
+        <v>4.35335636138916</v>
       </c>
       <c r="D121" t="n">
-        <v>-10.87695026397705</v>
+        <v>7.477152824401855</v>
       </c>
       <c r="E121" t="n">
-        <v>8.135814666748047</v>
+        <v>14.00112438201904</v>
       </c>
       <c r="F121" t="n">
-        <v>2.968065500259399</v>
+        <v>6.622652053833008</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-12.83169651031494</v>
+        <v>1.72649621963501</v>
       </c>
       <c r="B122" t="n">
-        <v>7.512080192565918</v>
+        <v>41.92751693725586</v>
       </c>
       <c r="C122" t="n">
-        <v>-14.00067806243896</v>
+        <v>4.272597312927246</v>
       </c>
       <c r="D122" t="n">
-        <v>-13.42759704589844</v>
+        <v>3.8813316822052</v>
       </c>
       <c r="E122" t="n">
-        <v>9.523480415344238</v>
+        <v>16.25988006591797</v>
       </c>
       <c r="F122" t="n">
-        <v>2.572112321853638</v>
+        <v>5.235244750976562</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>-13.66327667236328</v>
+        <v>-0.1608499884605408</v>
       </c>
       <c r="B123" t="n">
-        <v>7.807168006896973</v>
+        <v>42.0806770324707</v>
       </c>
       <c r="C123" t="n">
-        <v>-14.04812717437744</v>
+        <v>5.078328132629395</v>
       </c>
       <c r="D123" t="n">
-        <v>-15.37894248962402</v>
+        <v>1.522114872932434</v>
       </c>
       <c r="E123" t="n">
-        <v>10.52343845367432</v>
+        <v>19.46386909484863</v>
       </c>
       <c r="F123" t="n">
-        <v>2.433089733123779</v>
+        <v>3.620306015014648</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>-14.88654899597168</v>
+        <v>-2.119218349456787</v>
       </c>
       <c r="B124" t="n">
-        <v>7.887539863586426</v>
+        <v>41.8828239440918</v>
       </c>
       <c r="C124" t="n">
-        <v>-13.38519668579102</v>
+        <v>6.121249198913574</v>
       </c>
       <c r="D124" t="n">
-        <v>-16.15378189086914</v>
+        <v>0.2865344285964966</v>
       </c>
       <c r="E124" t="n">
-        <v>11.88608264923096</v>
+        <v>21.35089683532715</v>
       </c>
       <c r="F124" t="n">
-        <v>1.720858693122864</v>
+        <v>1.838157534599304</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>-15.96891593933105</v>
+        <v>-3.2103590965271</v>
       </c>
       <c r="B125" t="n">
-        <v>7.886127471923828</v>
+        <v>41.60520172119141</v>
       </c>
       <c r="C125" t="n">
-        <v>-12.30700874328613</v>
+        <v>7.756646156311035</v>
       </c>
       <c r="D125" t="n">
-        <v>-15.76180839538574</v>
+        <v>0.2956820726394653</v>
       </c>
       <c r="E125" t="n">
-        <v>12.59176445007324</v>
+        <v>23.54680824279785</v>
       </c>
       <c r="F125" t="n">
-        <v>0.8945722579956055</v>
+        <v>-0.894865095615387</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-16.88620948791504</v>
+        <v>-4.305270671844482</v>
       </c>
       <c r="B126" t="n">
-        <v>8.026204109191895</v>
+        <v>41.20492935180664</v>
       </c>
       <c r="C126" t="n">
-        <v>-10.90490245819092</v>
+        <v>10.74800682067871</v>
       </c>
       <c r="D126" t="n">
-        <v>-13.97882270812988</v>
+        <v>1.042548298835754</v>
       </c>
       <c r="E126" t="n">
-        <v>12.22816753387451</v>
+        <v>22.39838409423828</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.4630237221717834</v>
+        <v>-5.31051778793335</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-17.49575233459473</v>
+        <v>-3.825791835784912</v>
       </c>
       <c r="B127" t="n">
-        <v>8.422039985656738</v>
+        <v>41.05146026611328</v>
       </c>
       <c r="C127" t="n">
-        <v>-9.010043144226074</v>
+        <v>14.30371475219727</v>
       </c>
       <c r="D127" t="n">
-        <v>-11.81833076477051</v>
+        <v>3.784274339675903</v>
       </c>
       <c r="E127" t="n">
-        <v>10.92816066741943</v>
+        <v>18.79298782348633</v>
       </c>
       <c r="F127" t="n">
-        <v>-2.573337316513062</v>
+        <v>-10.66873550415039</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>-16.67325019836426</v>
+        <v>-4.829963207244873</v>
       </c>
       <c r="B128" t="n">
-        <v>8.979395866394043</v>
+        <v>40.92850112915039</v>
       </c>
       <c r="C128" t="n">
-        <v>-6.665907382965088</v>
+        <v>18.91928291320801</v>
       </c>
       <c r="D128" t="n">
-        <v>-9.171255111694336</v>
+        <v>6.861762046813965</v>
       </c>
       <c r="E128" t="n">
-        <v>8.263298034667969</v>
+        <v>11.97690296173096</v>
       </c>
       <c r="F128" t="n">
-        <v>-4.907597064971924</v>
+        <v>-15.46228885650635</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>-15.88025283813477</v>
+        <v>-4.946702480316162</v>
       </c>
       <c r="B129" t="n">
-        <v>9.138064384460449</v>
+        <v>40.02891540527344</v>
       </c>
       <c r="C129" t="n">
-        <v>-3.884067535400391</v>
+        <v>23.53120040893555</v>
       </c>
       <c r="D129" t="n">
-        <v>-6.037350177764893</v>
+        <v>10.70715236663818</v>
       </c>
       <c r="E129" t="n">
-        <v>3.750981569290161</v>
+        <v>1.048624992370605</v>
       </c>
       <c r="F129" t="n">
-        <v>-6.329723358154297</v>
+        <v>-19.0609130859375</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>-15.47686958312988</v>
+        <v>-2.862399578094482</v>
       </c>
       <c r="B130" t="n">
-        <v>9.772603034973145</v>
+        <v>39.87936019897461</v>
       </c>
       <c r="C130" t="n">
-        <v>-0.5071620941162109</v>
+        <v>29.56467628479004</v>
       </c>
       <c r="D130" t="n">
-        <v>-2.549788236618042</v>
+        <v>13.63042068481445</v>
       </c>
       <c r="E130" t="n">
-        <v>-1.647657752037048</v>
+        <v>-12.47094058990479</v>
       </c>
       <c r="F130" t="n">
-        <v>-7.337400436401367</v>
+        <v>-22.22835159301758</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>-13.81618690490723</v>
+        <v>-0.2060026526451111</v>
       </c>
       <c r="B131" t="n">
-        <v>10.12241172790527</v>
+        <v>40.03204345703125</v>
       </c>
       <c r="C131" t="n">
-        <v>3.926086664199829</v>
+        <v>35.99062728881836</v>
       </c>
       <c r="D131" t="n">
-        <v>-0.04755004495382309</v>
+        <v>16.59331512451172</v>
       </c>
       <c r="E131" t="n">
-        <v>-6.519469261169434</v>
+        <v>-24.80129814147949</v>
       </c>
       <c r="F131" t="n">
-        <v>-8.002590179443359</v>
+        <v>-22.85418510437012</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>-12.14126300811768</v>
+        <v>2.655638217926025</v>
       </c>
       <c r="B132" t="n">
-        <v>9.861723899841309</v>
+        <v>38.84576416015625</v>
       </c>
       <c r="C132" t="n">
-        <v>7.680679798126221</v>
+        <v>42.69684219360352</v>
       </c>
       <c r="D132" t="n">
-        <v>1.94152820110321</v>
+        <v>19.4681282043457</v>
       </c>
       <c r="E132" t="n">
-        <v>-10.70254421234131</v>
+        <v>-34.74846649169922</v>
       </c>
       <c r="F132" t="n">
-        <v>-7.891514301300049</v>
+        <v>-22.30228424072266</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-10.11934375762939</v>
+        <v>6.395128726959229</v>
       </c>
       <c r="B133" t="n">
-        <v>9.090923309326172</v>
+        <v>36.91220092773438</v>
       </c>
       <c r="C133" t="n">
-        <v>12.15262031555176</v>
+        <v>49.69382858276367</v>
       </c>
       <c r="D133" t="n">
-        <v>3.189160823822021</v>
+        <v>20.76340675354004</v>
       </c>
       <c r="E133" t="n">
-        <v>-14.0722541809082</v>
+        <v>-41.45223236083984</v>
       </c>
       <c r="F133" t="n">
-        <v>-6.6175217628479</v>
+        <v>-19.59807205200195</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>-7.191870212554932</v>
+        <v>10.08366584777832</v>
       </c>
       <c r="B134" t="n">
-        <v>8.306349754333496</v>
+        <v>35.07374572753906</v>
       </c>
       <c r="C134" t="n">
-        <v>16.40661430358887</v>
+        <v>56.17226409912109</v>
       </c>
       <c r="D134" t="n">
-        <v>3.14705228805542</v>
+        <v>21.09546852111816</v>
       </c>
       <c r="E134" t="n">
-        <v>-15.35058784484863</v>
+        <v>-44.52641296386719</v>
       </c>
       <c r="F134" t="n">
-        <v>-5.083561897277832</v>
+        <v>-16.17969703674316</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>-4.931788921356201</v>
+        <v>14.13039493560791</v>
       </c>
       <c r="B135" t="n">
-        <v>6.920626640319824</v>
+        <v>32.41347122192383</v>
       </c>
       <c r="C135" t="n">
-        <v>19.93169784545898</v>
+        <v>61.86707305908203</v>
       </c>
       <c r="D135" t="n">
-        <v>2.831391096115112</v>
+        <v>20.40042304992676</v>
       </c>
       <c r="E135" t="n">
-        <v>-14.54416465759277</v>
+        <v>-42.58503341674805</v>
       </c>
       <c r="F135" t="n">
-        <v>-3.29988431930542</v>
+        <v>-12.45613098144531</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>-1.703678131103516</v>
+        <v>18.29919624328613</v>
       </c>
       <c r="B136" t="n">
-        <v>5.353644371032715</v>
+        <v>29.57693862915039</v>
       </c>
       <c r="C136" t="n">
-        <v>23.34904479980469</v>
+        <v>65.92938995361328</v>
       </c>
       <c r="D136" t="n">
-        <v>1.529531836509705</v>
+        <v>18.90298271179199</v>
       </c>
       <c r="E136" t="n">
-        <v>-11.6355504989624</v>
+        <v>-36.64084243774414</v>
       </c>
       <c r="F136" t="n">
-        <v>-1.806037664413452</v>
+        <v>-9.618572235107422</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>0.3891430795192719</v>
+        <v>22.72974014282227</v>
       </c>
       <c r="B137" t="n">
-        <v>3.681291103363037</v>
+        <v>26.43572425842285</v>
       </c>
       <c r="C137" t="n">
-        <v>25.29056739807129</v>
+        <v>68.59178924560547</v>
       </c>
       <c r="D137" t="n">
-        <v>-0.1307190805673599</v>
+        <v>15.99872303009033</v>
       </c>
       <c r="E137" t="n">
-        <v>-8.133525848388672</v>
+        <v>-27.57785224914551</v>
       </c>
       <c r="F137" t="n">
-        <v>-0.9247763156890869</v>
+        <v>-7.505173206329346</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>2.756271600723267</v>
+        <v>26.63283729553223</v>
       </c>
       <c r="B138" t="n">
-        <v>1.845229387283325</v>
+        <v>22.91410255432129</v>
       </c>
       <c r="C138" t="n">
-        <v>25.82187080383301</v>
+        <v>70.05067443847656</v>
       </c>
       <c r="D138" t="n">
-        <v>-2.27200722694397</v>
+        <v>13.37525844573975</v>
       </c>
       <c r="E138" t="n">
-        <v>-3.70242714881897</v>
+        <v>-19.47076797485352</v>
       </c>
       <c r="F138" t="n">
-        <v>-0.481225311756134</v>
+        <v>-6.094316482543945</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>4.658636093139648</v>
+        <v>30.09236335754395</v>
       </c>
       <c r="B139" t="n">
-        <v>0.004612519405782223</v>
+        <v>19.66072082519531</v>
       </c>
       <c r="C139" t="n">
-        <v>25.20484924316406</v>
+        <v>69.38137817382812</v>
       </c>
       <c r="D139" t="n">
-        <v>-4.380482196807861</v>
+        <v>10.96906852722168</v>
       </c>
       <c r="E139" t="n">
-        <v>-0.6227851510047913</v>
+        <v>-12.30618381500244</v>
       </c>
       <c r="F139" t="n">
-        <v>0.1580054014921188</v>
+        <v>-4.746936321258545</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>6.099658012390137</v>
+        <v>33.01959228515625</v>
       </c>
       <c r="B140" t="n">
-        <v>-1.552103996276855</v>
+        <v>16.51718139648438</v>
       </c>
       <c r="C140" t="n">
-        <v>22.84646224975586</v>
+        <v>65.47018432617188</v>
       </c>
       <c r="D140" t="n">
-        <v>-6.339128494262695</v>
+        <v>8.33153247833252</v>
       </c>
       <c r="E140" t="n">
-        <v>1.867996215820312</v>
+        <v>-7.408011913299561</v>
       </c>
       <c r="F140" t="n">
-        <v>0.6974884271621704</v>
+        <v>-3.967751502990723</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>7.17002010345459</v>
+        <v>35.14183807373047</v>
       </c>
       <c r="B141" t="n">
-        <v>-3.130995512008667</v>
+        <v>13.26657295227051</v>
       </c>
       <c r="C141" t="n">
-        <v>20.03363418579102</v>
+        <v>59.38284683227539</v>
       </c>
       <c r="D141" t="n">
-        <v>-8.32667064666748</v>
+        <v>6.600865364074707</v>
       </c>
       <c r="E141" t="n">
-        <v>3.438133478164673</v>
+        <v>-4.894299507141113</v>
       </c>
       <c r="F141" t="n">
-        <v>1.494796395301819</v>
+        <v>-1.939286351203918</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>8.168421745300293</v>
+        <v>36.41603851318359</v>
       </c>
       <c r="B142" t="n">
-        <v>-5.062193393707275</v>
+        <v>10.12031269073486</v>
       </c>
       <c r="C142" t="n">
-        <v>16.2880859375</v>
+        <v>52.1752815246582</v>
       </c>
       <c r="D142" t="n">
-        <v>-9.371952056884766</v>
+        <v>4.428460121154785</v>
       </c>
       <c r="E142" t="n">
-        <v>3.844065189361572</v>
+        <v>-4.135737419128418</v>
       </c>
       <c r="F142" t="n">
-        <v>2.342249393463135</v>
+        <v>-0.1747828125953674</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>7.524458885192871</v>
+        <v>37.50901412963867</v>
       </c>
       <c r="B143" t="n">
-        <v>-6.509891986846924</v>
+        <v>7.457352638244629</v>
       </c>
       <c r="C143" t="n">
-        <v>10.56710052490234</v>
+        <v>43.32370376586914</v>
       </c>
       <c r="D143" t="n">
-        <v>-10.51934909820557</v>
+        <v>3.71802830696106</v>
       </c>
       <c r="E143" t="n">
-        <v>3.64466404914856</v>
+        <v>-5.22675895690918</v>
       </c>
       <c r="F143" t="n">
-        <v>3.60676121711731</v>
+        <v>2.85155200958252</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>7.396306037902832</v>
+        <v>38.23149490356445</v>
       </c>
       <c r="B144" t="n">
-        <v>-7.881768703460693</v>
+        <v>5.227953910827637</v>
       </c>
       <c r="C144" t="n">
-        <v>4.958066463470459</v>
+        <v>36.08429718017578</v>
       </c>
       <c r="D144" t="n">
-        <v>-11.18259334564209</v>
+        <v>2.953269243240356</v>
       </c>
       <c r="E144" t="n">
-        <v>2.858944892883301</v>
+        <v>-6.858606338500977</v>
       </c>
       <c r="F144" t="n">
-        <v>5.006124496459961</v>
+        <v>5.987790107727051</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>6.817659378051758</v>
+        <v>38.47983169555664</v>
       </c>
       <c r="B145" t="n">
-        <v>-9.069769859313965</v>
+        <v>2.691693067550659</v>
       </c>
       <c r="C145" t="n">
-        <v>-0.2963972091674805</v>
+        <v>27.57588768005371</v>
       </c>
       <c r="D145" t="n">
-        <v>-11.79595470428467</v>
+        <v>2.436221361160278</v>
       </c>
       <c r="E145" t="n">
-        <v>1.759711503982544</v>
+        <v>-8.9945068359375</v>
       </c>
       <c r="F145" t="n">
-        <v>5.924720764160156</v>
+        <v>9.284136772155762</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>7.305265426635742</v>
+        <v>38.63091278076172</v>
       </c>
       <c r="B146" t="n">
-        <v>-10.92236423492432</v>
+        <v>-0.1390411257743835</v>
       </c>
       <c r="C146" t="n">
-        <v>-5.097410678863525</v>
+        <v>19.8934268951416</v>
       </c>
       <c r="D146" t="n">
-        <v>-11.96284866333008</v>
+        <v>2.554229021072388</v>
       </c>
       <c r="E146" t="n">
-        <v>0.7012624740600586</v>
+        <v>-10.63081932067871</v>
       </c>
       <c r="F146" t="n">
-        <v>7.494245052337646</v>
+        <v>12.03542137145996</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>6.064616203308105</v>
+        <v>38.67121124267578</v>
       </c>
       <c r="B147" t="n">
-        <v>-12.04652118682861</v>
+        <v>-2.549279451370239</v>
       </c>
       <c r="C147" t="n">
-        <v>-8.728033065795898</v>
+        <v>13.82943248748779</v>
       </c>
       <c r="D147" t="n">
-        <v>-12.34407806396484</v>
+        <v>2.823195695877075</v>
       </c>
       <c r="E147" t="n">
-        <v>0.3418596088886261</v>
+        <v>-12.29923152923584</v>
       </c>
       <c r="F147" t="n">
-        <v>8.610598564147949</v>
+        <v>14.97574615478516</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>5.727221012115479</v>
+        <v>37.7219123840332</v>
       </c>
       <c r="B148" t="n">
-        <v>-13.44730949401855</v>
+        <v>-4.948525428771973</v>
       </c>
       <c r="C148" t="n">
-        <v>-11.55381488800049</v>
+        <v>8.791705131530762</v>
       </c>
       <c r="D148" t="n">
-        <v>-12.45784854888916</v>
+        <v>3.932883501052856</v>
       </c>
       <c r="E148" t="n">
-        <v>-0.3142964541912079</v>
+        <v>-12.59314060211182</v>
       </c>
       <c r="F148" t="n">
-        <v>10.08044147491455</v>
+        <v>17.57691955566406</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>5.512211799621582</v>
+        <v>38.84149932861328</v>
       </c>
       <c r="B149" t="n">
-        <v>-15.1850700378418</v>
+        <v>-7.532671928405762</v>
       </c>
       <c r="C149" t="n">
-        <v>-12.38878154754639</v>
+        <v>6.373919486999512</v>
       </c>
       <c r="D149" t="n">
-        <v>-11.81254196166992</v>
+        <v>4.274069786071777</v>
       </c>
       <c r="E149" t="n">
-        <v>-0.6011605262756348</v>
+        <v>-12.58768844604492</v>
       </c>
       <c r="F149" t="n">
-        <v>10.52867031097412</v>
+        <v>19.29336357116699</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>5.255927085876465</v>
+        <v>38.86096572875977</v>
       </c>
       <c r="B150" t="n">
-        <v>-16.08606910705566</v>
+        <v>-9.656542778015137</v>
       </c>
       <c r="C150" t="n">
-        <v>-12.78028869628906</v>
+        <v>5.367487907409668</v>
       </c>
       <c r="D150" t="n">
-        <v>-11.60357475280762</v>
+        <v>5.714587211608887</v>
       </c>
       <c r="E150" t="n">
-        <v>-1.178680062294006</v>
+        <v>-12.91076183319092</v>
       </c>
       <c r="F150" t="n">
-        <v>11.35180187225342</v>
+        <v>20.35537719726562</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>6.146398544311523</v>
+        <v>39.16956329345703</v>
       </c>
       <c r="B151" t="n">
-        <v>-17.09895324707031</v>
+        <v>-11.47832775115967</v>
       </c>
       <c r="C151" t="n">
-        <v>-11.48679256439209</v>
+        <v>6.107100486755371</v>
       </c>
       <c r="D151" t="n">
-        <v>-10.21516609191895</v>
+        <v>7.800288200378418</v>
       </c>
       <c r="E151" t="n">
-        <v>-1.480505228042603</v>
+        <v>-13.98449516296387</v>
       </c>
       <c r="F151" t="n">
-        <v>10.88146209716797</v>
+        <v>19.81760025024414</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>6.252516746520996</v>
+        <v>40.70597839355469</v>
       </c>
       <c r="B152" t="n">
-        <v>-17.40156364440918</v>
+        <v>-11.96178340911865</v>
       </c>
       <c r="C152" t="n">
-        <v>-10.48179912567139</v>
+        <v>6.413178443908691</v>
       </c>
       <c r="D152" t="n">
-        <v>-8.672642707824707</v>
+        <v>10.08925247192383</v>
       </c>
       <c r="E152" t="n">
-        <v>-1.964989066123962</v>
+        <v>-14.62975406646729</v>
       </c>
       <c r="F152" t="n">
-        <v>9.465873718261719</v>
+        <v>17.57834434509277</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>7.921330451965332</v>
+        <v>41.16873168945312</v>
       </c>
       <c r="B153" t="n">
-        <v>-17.56688499450684</v>
+        <v>-12.63610363006592</v>
       </c>
       <c r="C153" t="n">
-        <v>-9.768136024475098</v>
+        <v>8.889239311218262</v>
       </c>
       <c r="D153" t="n">
-        <v>-6.906095027923584</v>
+        <v>13.82960319519043</v>
       </c>
       <c r="E153" t="n">
-        <v>-2.459983348846436</v>
+        <v>-16.55767631530762</v>
       </c>
       <c r="F153" t="n">
-        <v>7.45283031463623</v>
+        <v>11.28380966186523</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>7.892673492431641</v>
+        <v>41.78010559082031</v>
       </c>
       <c r="B154" t="n">
-        <v>-17.59053039550781</v>
+        <v>-11.97463893890381</v>
       </c>
       <c r="C154" t="n">
-        <v>-7.523572444915771</v>
+        <v>10.69229793548584</v>
       </c>
       <c r="D154" t="n">
-        <v>-3.922430038452148</v>
+        <v>18.02584648132324</v>
       </c>
       <c r="E154" t="n">
-        <v>-3.46475625038147</v>
+        <v>-19.00949668884277</v>
       </c>
       <c r="F154" t="n">
-        <v>3.434871673583984</v>
+        <v>3.107558250427246</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>8.866495132446289</v>
+        <v>41.87636566162109</v>
       </c>
       <c r="B155" t="n">
-        <v>-13.05470848083496</v>
+        <v>6.162182807922363</v>
       </c>
       <c r="C155" t="n">
-        <v>-5.666994094848633</v>
+        <v>11.50068759918213</v>
       </c>
       <c r="D155" t="n">
-        <v>2.013832092285156</v>
+        <v>28.20541191101074</v>
       </c>
       <c r="E155" t="n">
-        <v>-6.156613826751709</v>
+        <v>-20.35606956481934</v>
       </c>
       <c r="F155" t="n">
-        <v>3.156770706176758</v>
+        <v>9.686920166015625</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>9.589373588562012</v>
+        <v>41.9481201171875</v>
       </c>
       <c r="B156" t="n">
-        <v>-11.39391422271729</v>
+        <v>8.613613128662109</v>
       </c>
       <c r="C156" t="n">
-        <v>-2.315472841262817</v>
+        <v>15.83352756500244</v>
       </c>
       <c r="D156" t="n">
-        <v>6.062643527984619</v>
+        <v>34.01388549804688</v>
       </c>
       <c r="E156" t="n">
-        <v>-6.800413131713867</v>
+        <v>-21.21138191223145</v>
       </c>
       <c r="F156" t="n">
-        <v>-0.1443066298961639</v>
+        <v>1.335102438926697</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>9.58110237121582</v>
+        <v>41.53096389770508</v>
       </c>
       <c r="B157" t="n">
-        <v>-10.41353988647461</v>
+        <v>11.16753101348877</v>
       </c>
       <c r="C157" t="n">
-        <v>0.5188330411911011</v>
+        <v>19.43186569213867</v>
       </c>
       <c r="D157" t="n">
-        <v>10.19663238525391</v>
+        <v>40.18571090698242</v>
       </c>
       <c r="E157" t="n">
-        <v>-6.672095775604248</v>
+        <v>-20.80228042602539</v>
       </c>
       <c r="F157" t="n">
-        <v>-3.757632255554199</v>
+        <v>-6.624088287353516</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10.34225749969482</v>
+        <v>41.16395568847656</v>
       </c>
       <c r="B158" t="n">
-        <v>-8.488739013671875</v>
+        <v>13.80788993835449</v>
       </c>
       <c r="C158" t="n">
-        <v>3.043705224990845</v>
+        <v>22.9337158203125</v>
       </c>
       <c r="D158" t="n">
-        <v>13.64461421966553</v>
+        <v>45.60119247436523</v>
       </c>
       <c r="E158" t="n">
-        <v>-5.688628196716309</v>
+        <v>-18.90279006958008</v>
       </c>
       <c r="F158" t="n">
-        <v>-6.99071741104126</v>
+        <v>-13.35011291503906</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>9.754439353942871</v>
+        <v>39.87096405029297</v>
       </c>
       <c r="B159" t="n">
-        <v>-7.287745475769043</v>
+        <v>17.09992980957031</v>
       </c>
       <c r="C159" t="n">
-        <v>4.096354484558105</v>
+        <v>24.59792137145996</v>
       </c>
       <c r="D159" t="n">
-        <v>17.26316452026367</v>
+        <v>51.19632720947266</v>
       </c>
       <c r="E159" t="n">
-        <v>-4.507827281951904</v>
+        <v>-15.89096641540527</v>
       </c>
       <c r="F159" t="n">
-        <v>-8.750924110412598</v>
+        <v>-16.92385292053223</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>8.596990585327148</v>
+        <v>38.26643371582031</v>
       </c>
       <c r="B160" t="n">
-        <v>-5.142386913299561</v>
+        <v>20.50789451599121</v>
       </c>
       <c r="C160" t="n">
-        <v>4.297623157501221</v>
+        <v>25.39666557312012</v>
       </c>
       <c r="D160" t="n">
-        <v>20.65051078796387</v>
+        <v>55.3760986328125</v>
       </c>
       <c r="E160" t="n">
-        <v>-2.921606540679932</v>
+        <v>-12.02807807922363</v>
       </c>
       <c r="F160" t="n">
-        <v>-8.856050491333008</v>
+        <v>-16.67258644104004</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>7.17198657989502</v>
+        <v>36.18013000488281</v>
       </c>
       <c r="B161" t="n">
-        <v>-2.959418773651123</v>
+        <v>23.29126930236816</v>
       </c>
       <c r="C161" t="n">
-        <v>3.873146295547485</v>
+        <v>24.5694637298584</v>
       </c>
       <c r="D161" t="n">
-        <v>22.77419853210449</v>
+        <v>57.7224006652832</v>
       </c>
       <c r="E161" t="n">
-        <v>-1.050464749336243</v>
+        <v>-7.480069160461426</v>
       </c>
       <c r="F161" t="n">
-        <v>-8.368227005004883</v>
+        <v>-15.21639537811279</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>5.792800903320312</v>
+        <v>33.87998962402344</v>
       </c>
       <c r="B162" t="n">
-        <v>-1.140349745750427</v>
+        <v>26.22321891784668</v>
       </c>
       <c r="C162" t="n">
-        <v>2.750650882720947</v>
+        <v>23.39710998535156</v>
       </c>
       <c r="D162" t="n">
-        <v>23.00693893432617</v>
+        <v>57.76147079467773</v>
       </c>
       <c r="E162" t="n">
-        <v>0.4253705739974976</v>
+        <v>-3.635640382766724</v>
       </c>
       <c r="F162" t="n">
-        <v>-6.053018569946289</v>
+        <v>-9.491796493530273</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>4.359784126281738</v>
+        <v>31.03682327270508</v>
       </c>
       <c r="B163" t="n">
-        <v>0.2958046197891235</v>
+        <v>29.60940742492676</v>
       </c>
       <c r="C163" t="n">
-        <v>1.335694789886475</v>
+        <v>21.37740325927734</v>
       </c>
       <c r="D163" t="n">
-        <v>22.02990913391113</v>
+        <v>58.83234024047852</v>
       </c>
       <c r="E163" t="n">
-        <v>1.867802858352661</v>
+        <v>-1.130441188812256</v>
       </c>
       <c r="F163" t="n">
-        <v>-3.846329689025879</v>
+        <v>-4.188002109527588</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>2.666844367980957</v>
+        <v>27.57173156738281</v>
       </c>
       <c r="B164" t="n">
-        <v>2.001833438873291</v>
+        <v>32.35517120361328</v>
       </c>
       <c r="C164" t="n">
-        <v>-0.9247559905052185</v>
+        <v>18.98648071289062</v>
       </c>
       <c r="D164" t="n">
-        <v>20.06690406799316</v>
+        <v>55.70859909057617</v>
       </c>
       <c r="E164" t="n">
-        <v>2.431409597396851</v>
+        <v>1.119543075561523</v>
       </c>
       <c r="F164" t="n">
-        <v>-0.8262592554092407</v>
+        <v>1.48269259929657</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0.8489593863487244</v>
+        <v>24.92066764831543</v>
       </c>
       <c r="B165" t="n">
-        <v>3.178717613220215</v>
+        <v>34.36760711669922</v>
       </c>
       <c r="C165" t="n">
-        <v>-2.909791469573975</v>
+        <v>16.011474609375</v>
       </c>
       <c r="D165" t="n">
-        <v>17.28310012817383</v>
+        <v>51.09030151367188</v>
       </c>
       <c r="E165" t="n">
-        <v>2.787278413772583</v>
+        <v>2.264101982116699</v>
       </c>
       <c r="F165" t="n">
-        <v>1.417218685150146</v>
+        <v>6.652992248535156</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>-0.9204716086387634</v>
+        <v>21.79129791259766</v>
       </c>
       <c r="B166" t="n">
-        <v>4.694554328918457</v>
+        <v>37.10895156860352</v>
       </c>
       <c r="C166" t="n">
-        <v>-5.082983016967773</v>
+        <v>13.26545429229736</v>
       </c>
       <c r="D166" t="n">
-        <v>13.8305606842041</v>
+        <v>45.06033325195312</v>
       </c>
       <c r="E166" t="n">
-        <v>3.205573081970215</v>
+        <v>3.170326232910156</v>
       </c>
       <c r="F166" t="n">
-        <v>2.936432600021362</v>
+        <v>9.986530303955078</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>-2.742175817489624</v>
+        <v>18.44426345825195</v>
       </c>
       <c r="B167" t="n">
-        <v>5.639453411102295</v>
+        <v>38.37749099731445</v>
       </c>
       <c r="C167" t="n">
-        <v>-7.244504451751709</v>
+        <v>11.10745525360107</v>
       </c>
       <c r="D167" t="n">
-        <v>9.738688468933105</v>
+        <v>38.66920471191406</v>
       </c>
       <c r="E167" t="n">
-        <v>3.414473533630371</v>
+        <v>4.219146728515625</v>
       </c>
       <c r="F167" t="n">
-        <v>4.003825664520264</v>
+        <v>11.37167930603027</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>-4.660321712493896</v>
+        <v>14.99450016021729</v>
       </c>
       <c r="B168" t="n">
-        <v>6.222732067108154</v>
+        <v>39.89773178100586</v>
       </c>
       <c r="C168" t="n">
-        <v>-8.831716537475586</v>
+        <v>8.955609321594238</v>
       </c>
       <c r="D168" t="n">
-        <v>5.267059803009033</v>
+        <v>32.31229782104492</v>
       </c>
       <c r="E168" t="n">
-        <v>3.936893224716187</v>
+        <v>5.304050445556641</v>
       </c>
       <c r="F168" t="n">
-        <v>4.576807022094727</v>
+        <v>12.02126884460449</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-6.374309539794922</v>
+        <v>12.33105945587158</v>
       </c>
       <c r="B169" t="n">
-        <v>6.918498516082764</v>
+        <v>41.02069854736328</v>
       </c>
       <c r="C169" t="n">
-        <v>-10.77994155883789</v>
+        <v>6.270199775695801</v>
       </c>
       <c r="D169" t="n">
-        <v>0.6743438839912415</v>
+        <v>24.21357536315918</v>
       </c>
       <c r="E169" t="n">
-        <v>4.709980964660645</v>
+        <v>6.458944320678711</v>
       </c>
       <c r="F169" t="n">
-        <v>4.241646766662598</v>
+        <v>11.08438491821289</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-8.223544120788574</v>
+        <v>9.494850158691406</v>
       </c>
       <c r="B170" t="n">
-        <v>7.130533218383789</v>
+        <v>41.17300033569336</v>
       </c>
       <c r="C170" t="n">
-        <v>-12.44469738006592</v>
+        <v>5.071192741394043</v>
       </c>
       <c r="D170" t="n">
-        <v>-3.68537163734436</v>
+        <v>17.7016773223877</v>
       </c>
       <c r="E170" t="n">
-        <v>5.881854057312012</v>
+        <v>8.719290733337402</v>
       </c>
       <c r="F170" t="n">
-        <v>4.100123405456543</v>
+        <v>10.23875617980957</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>-9.879763603210449</v>
+        <v>6.737156391143799</v>
       </c>
       <c r="B171" t="n">
-        <v>6.889203548431396</v>
+        <v>42.16102600097656</v>
       </c>
       <c r="C171" t="n">
-        <v>-13.22446346282959</v>
+        <v>4.304621696472168</v>
       </c>
       <c r="D171" t="n">
-        <v>-8.349010467529297</v>
+        <v>11.86836624145508</v>
       </c>
       <c r="E171" t="n">
-        <v>6.33133602142334</v>
+        <v>10.80627918243408</v>
       </c>
       <c r="F171" t="n">
-        <v>3.559903383255005</v>
+        <v>8.3936767578125</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>-10.99439525604248</v>
+        <v>4.254032611846924</v>
       </c>
       <c r="B172" t="n">
-        <v>6.912583351135254</v>
+        <v>42.28031921386719</v>
       </c>
       <c r="C172" t="n">
-        <v>-13.68661308288574</v>
+        <v>4.225577354431152</v>
       </c>
       <c r="D172" t="n">
-        <v>-10.91265201568604</v>
+        <v>6.992257118225098</v>
       </c>
       <c r="E172" t="n">
-        <v>8.174687385559082</v>
+        <v>14.1056547164917</v>
       </c>
       <c r="F172" t="n">
-        <v>2.927370548248291</v>
+        <v>6.863346099853516</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-12.89473056793213</v>
+        <v>1.651998996734619</v>
       </c>
       <c r="B173" t="n">
-        <v>7.438291549682617</v>
+        <v>42.13692855834961</v>
       </c>
       <c r="C173" t="n">
-        <v>-14.1285228729248</v>
+        <v>4.147887229919434</v>
       </c>
       <c r="D173" t="n">
-        <v>-13.45199394226074</v>
+        <v>3.457223176956177</v>
       </c>
       <c r="E173" t="n">
-        <v>9.54967212677002</v>
+        <v>16.41591644287109</v>
       </c>
       <c r="F173" t="n">
-        <v>2.500398397445679</v>
+        <v>5.440101623535156</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>-13.72414970397949</v>
+        <v>-0.2076029181480408</v>
       </c>
       <c r="B174" t="n">
-        <v>7.726480484008789</v>
+        <v>42.29161834716797</v>
       </c>
       <c r="C174" t="n">
-        <v>-14.15761089324951</v>
+        <v>4.958409309387207</v>
       </c>
       <c r="D174" t="n">
-        <v>-15.43546295166016</v>
+        <v>1.116294026374817</v>
       </c>
       <c r="E174" t="n">
-        <v>10.56253051757812</v>
+        <v>19.67142868041992</v>
       </c>
       <c r="F174" t="n">
-        <v>2.349268436431885</v>
+        <v>3.749235153198242</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>-14.95666408538818</v>
+        <v>-2.201449871063232</v>
       </c>
       <c r="B175" t="n">
-        <v>7.791455268859863</v>
+        <v>42.08710098266602</v>
       </c>
       <c r="C175" t="n">
-        <v>-13.51040744781494</v>
+        <v>5.965306282043457</v>
       </c>
       <c r="D175" t="n">
-        <v>-16.2122688293457</v>
+        <v>-0.03054320625960827</v>
       </c>
       <c r="E175" t="n">
-        <v>11.93465328216553</v>
+        <v>21.56991004943848</v>
       </c>
       <c r="F175" t="n">
-        <v>1.648520827293396</v>
+        <v>1.939539790153503</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>-16.05362319946289</v>
+        <v>-3.317513942718506</v>
       </c>
       <c r="B176" t="n">
-        <v>7.806110382080078</v>
+        <v>41.8259162902832</v>
       </c>
       <c r="C176" t="n">
-        <v>-12.40343189239502</v>
+        <v>7.619824409484863</v>
       </c>
       <c r="D176" t="n">
-        <v>-15.81848812103271</v>
+        <v>-0.001536248833872378</v>
       </c>
       <c r="E176" t="n">
-        <v>12.61900043487549</v>
+        <v>23.79222679138184</v>
       </c>
       <c r="F176" t="n">
-        <v>0.8263007402420044</v>
+        <v>-0.8067460656166077</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-16.97359466552734</v>
+        <v>-4.417361736297607</v>
       </c>
       <c r="B177" t="n">
-        <v>7.983845710754395</v>
+        <v>41.44808959960938</v>
       </c>
       <c r="C177" t="n">
-        <v>-11.01191520690918</v>
+        <v>10.5952730178833</v>
       </c>
       <c r="D177" t="n">
-        <v>-14.04482269287109</v>
+        <v>0.7938395738601685</v>
       </c>
       <c r="E177" t="n">
-        <v>12.25321197509766</v>
+        <v>22.63311004638672</v>
       </c>
       <c r="F177" t="n">
-        <v>-0.5630958080291748</v>
+        <v>-5.250798225402832</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>-17.57847213745117</v>
+        <v>-3.916064739227295</v>
       </c>
       <c r="B178" t="n">
-        <v>8.447006225585938</v>
+        <v>41.2669677734375</v>
       </c>
       <c r="C178" t="n">
-        <v>-9.092109680175781</v>
+        <v>14.12183475494385</v>
       </c>
       <c r="D178" t="n">
-        <v>-11.87819957733154</v>
+        <v>3.614169359207153</v>
       </c>
       <c r="E178" t="n">
-        <v>10.95607757568359</v>
+        <v>19.11110687255859</v>
       </c>
       <c r="F178" t="n">
-        <v>-2.706497669219971</v>
+        <v>-10.67499446868896</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>-16.74531745910645</v>
+        <v>-4.972457408905029</v>
       </c>
       <c r="B179" t="n">
-        <v>9.043682098388672</v>
+        <v>41.10871124267578</v>
       </c>
       <c r="C179" t="n">
-        <v>-6.74411153793335</v>
+        <v>18.73884010314941</v>
       </c>
       <c r="D179" t="n">
-        <v>-9.180895805358887</v>
+        <v>6.711005210876465</v>
       </c>
       <c r="E179" t="n">
-        <v>8.260310173034668</v>
+        <v>12.28824329376221</v>
       </c>
       <c r="F179" t="n">
-        <v>-5.049869060516357</v>
+        <v>-15.50109577178955</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>-15.97908592224121</v>
+        <v>-5.113189220428467</v>
       </c>
       <c r="B180" t="n">
-        <v>9.279721260070801</v>
+        <v>40.1722526550293</v>
       </c>
       <c r="C180" t="n">
-        <v>-3.950948238372803</v>
+        <v>23.33283996582031</v>
       </c>
       <c r="D180" t="n">
-        <v>-6.009861469268799</v>
+        <v>10.61198902130127</v>
       </c>
       <c r="E180" t="n">
-        <v>3.730689287185669</v>
+        <v>1.356562614440918</v>
       </c>
       <c r="F180" t="n">
-        <v>-6.456017971038818</v>
+        <v>-19.15443420410156</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>-15.56294441223145</v>
+        <v>-3.045728206634521</v>
       </c>
       <c r="B181" t="n">
-        <v>9.956969261169434</v>
+        <v>40.02886199951172</v>
       </c>
       <c r="C181" t="n">
-        <v>-0.5695773363113403</v>
+        <v>29.3471736907959</v>
       </c>
       <c r="D181" t="n">
-        <v>-2.478519916534424</v>
+        <v>13.57351589202881</v>
       </c>
       <c r="E181" t="n">
-        <v>-1.67530345916748</v>
+        <v>-12.18003940582275</v>
       </c>
       <c r="F181" t="n">
-        <v>-7.469366073608398</v>
+        <v>-22.31119537353516</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>-13.94532203674316</v>
+        <v>-0.4111608862876892</v>
       </c>
       <c r="B182" t="n">
-        <v>10.32081985473633</v>
+        <v>40.21026611328125</v>
       </c>
       <c r="C182" t="n">
-        <v>3.882769823074341</v>
+        <v>35.77548980712891</v>
       </c>
       <c r="D182" t="n">
-        <v>0.07912150770425797</v>
+        <v>16.63125991821289</v>
       </c>
       <c r="E182" t="n">
-        <v>-6.567238807678223</v>
+        <v>-24.60648727416992</v>
       </c>
       <c r="F182" t="n">
-        <v>-8.149629592895508</v>
+        <v>-22.95029258728027</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>-12.23191452026367</v>
+        <v>2.455875873565674</v>
       </c>
       <c r="B183" t="n">
-        <v>10.09919166564941</v>
+        <v>39.04590606689453</v>
       </c>
       <c r="C183" t="n">
-        <v>7.67004919052124</v>
+        <v>42.49248886108398</v>
       </c>
       <c r="D183" t="n">
-        <v>2.132312774658203</v>
+        <v>19.54132843017578</v>
       </c>
       <c r="E183" t="n">
-        <v>-10.75815868377686</v>
+        <v>-34.64949035644531</v>
       </c>
       <c r="F183" t="n">
-        <v>-8.018692970275879</v>
+        <v>-22.38351631164551</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>-10.19997596740723</v>
+        <v>6.212131977081299</v>
       </c>
       <c r="B184" t="n">
-        <v>9.306747436523438</v>
+        <v>37.10752105712891</v>
       </c>
       <c r="C184" t="n">
-        <v>12.17548084259033</v>
+        <v>49.52589416503906</v>
       </c>
       <c r="D184" t="n">
-        <v>3.3661789894104</v>
+        <v>20.85175132751465</v>
       </c>
       <c r="E184" t="n">
-        <v>-14.14873886108398</v>
+        <v>-41.45028305053711</v>
       </c>
       <c r="F184" t="n">
-        <v>-6.699448108673096</v>
+        <v>-19.66426658630371</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-7.26950216293335</v>
+        <v>9.904575347900391</v>
       </c>
       <c r="B185" t="n">
-        <v>8.504493713378906</v>
+        <v>35.24692916870117</v>
       </c>
       <c r="C185" t="n">
-        <v>16.43157005310059</v>
+        <v>56.08013153076172</v>
       </c>
       <c r="D185" t="n">
-        <v>3.332585334777832</v>
+        <v>21.2205982208252</v>
       </c>
       <c r="E185" t="n">
-        <v>-15.4206485748291</v>
+        <v>-44.59325408935547</v>
       </c>
       <c r="F185" t="n">
-        <v>-5.13336181640625</v>
+        <v>-16.20504570007324</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-4.959504127502441</v>
+        <v>13.95376396179199</v>
       </c>
       <c r="B186" t="n">
-        <v>7.08241081237793</v>
+        <v>32.58059692382812</v>
       </c>
       <c r="C186" t="n">
-        <v>20.01224899291992</v>
+        <v>61.74275207519531</v>
       </c>
       <c r="D186" t="n">
-        <v>3.005338668823242</v>
+        <v>20.56721878051758</v>
       </c>
       <c r="E186" t="n">
-        <v>-14.63412094116211</v>
+        <v>-42.75344467163086</v>
       </c>
       <c r="F186" t="n">
-        <v>-3.311445713043213</v>
+        <v>-12.46240997314453</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>-1.723131060600281</v>
+        <v>18.14851951599121</v>
       </c>
       <c r="B187" t="n">
-        <v>5.491954326629639</v>
+        <v>29.75135040283203</v>
       </c>
       <c r="C187" t="n">
-        <v>23.45693397521973</v>
+        <v>65.91014099121094</v>
       </c>
       <c r="D187" t="n">
-        <v>1.671935439109802</v>
+        <v>19.0362491607666</v>
       </c>
       <c r="E187" t="n">
-        <v>-11.74826717376709</v>
+        <v>-36.8039665222168</v>
       </c>
       <c r="F187" t="n">
-        <v>-1.794568061828613</v>
+        <v>-9.582967758178711</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>0.4109559953212738</v>
+        <v>22.58768844604492</v>
       </c>
       <c r="B188" t="n">
-        <v>3.805699825286865</v>
+        <v>26.58371734619141</v>
       </c>
       <c r="C188" t="n">
-        <v>25.43358612060547</v>
+        <v>68.62460327148438</v>
       </c>
       <c r="D188" t="n">
-        <v>-0.006933055352419615</v>
+        <v>16.13994598388672</v>
       </c>
       <c r="E188" t="n">
-        <v>-8.274039268493652</v>
+        <v>-27.70632934570312</v>
       </c>
       <c r="F188" t="n">
-        <v>-0.8923629522323608</v>
+        <v>-7.446147918701172</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>2.806335210800171</v>
+        <v>26.49969673156738</v>
       </c>
       <c r="B189" t="n">
-        <v>1.945072889328003</v>
+        <v>23.04074859619141</v>
       </c>
       <c r="C189" t="n">
-        <v>25.99119758605957</v>
+        <v>70.10700225830078</v>
       </c>
       <c r="D189" t="n">
-        <v>-2.178373575210571</v>
+        <v>13.53560066223145</v>
       </c>
       <c r="E189" t="n">
-        <v>-3.856196641921997</v>
+        <v>-19.50027084350586</v>
       </c>
       <c r="F189" t="n">
-        <v>-0.4266542196273804</v>
+        <v>-6.003934383392334</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>4.732288360595703</v>
+        <v>29.99240875244141</v>
       </c>
       <c r="B190" t="n">
-        <v>0.08082319796085358</v>
+        <v>19.7703914642334</v>
       </c>
       <c r="C190" t="n">
-        <v>25.41247367858887</v>
+        <v>69.44413757324219</v>
       </c>
       <c r="D190" t="n">
-        <v>-4.314981460571289</v>
+        <v>11.11285018920898</v>
       </c>
       <c r="E190" t="n">
-        <v>-0.7470263242721558</v>
+        <v>-12.25875854492188</v>
       </c>
       <c r="F190" t="n">
-        <v>0.2059697806835175</v>
+        <v>-4.649543285369873</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>6.20438289642334</v>
+        <v>32.93817520141602</v>
       </c>
       <c r="B191" t="n">
-        <v>-1.514235258102417</v>
+        <v>16.63411712646484</v>
       </c>
       <c r="C191" t="n">
-        <v>23.09539985656738</v>
+        <v>65.58444213867188</v>
       </c>
       <c r="D191" t="n">
-        <v>-6.323124885559082</v>
+        <v>8.459694862365723</v>
       </c>
       <c r="E191" t="n">
-        <v>1.749555110931396</v>
+        <v>-7.305221080780029</v>
       </c>
       <c r="F191" t="n">
-        <v>0.7382795810699463</v>
+        <v>-3.813562393188477</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>7.261194229125977</v>
+        <v>35.03928756713867</v>
       </c>
       <c r="B192" t="n">
-        <v>-3.106285095214844</v>
+        <v>13.33487796783447</v>
       </c>
       <c r="C192" t="n">
-        <v>20.26148223876953</v>
+        <v>59.5465202331543</v>
       </c>
       <c r="D192" t="n">
-        <v>-8.316788673400879</v>
+        <v>6.716984748840332</v>
       </c>
       <c r="E192" t="n">
-        <v>3.356864213943481</v>
+        <v>-4.71525239944458</v>
       </c>
       <c r="F192" t="n">
-        <v>1.538068652153015</v>
+        <v>-1.789621472358704</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>8.276217460632324</v>
+        <v>36.38760757446289</v>
       </c>
       <c r="B193" t="n">
-        <v>-5.074032306671143</v>
+        <v>10.19552040100098</v>
       </c>
       <c r="C193" t="n">
-        <v>16.48965454101562</v>
+        <v>52.28633880615234</v>
       </c>
       <c r="D193" t="n">
-        <v>-9.426078796386719</v>
+        <v>4.537352561950684</v>
       </c>
       <c r="E193" t="n">
-        <v>3.793149948120117</v>
+        <v>-3.943538427352905</v>
       </c>
       <c r="F193" t="n">
-        <v>2.385672330856323</v>
+        <v>0.025179797783494</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>7.657415390014648</v>
+        <v>37.46599960327148</v>
       </c>
       <c r="B194" t="n">
-        <v>-6.539680004119873</v>
+        <v>7.52690601348877</v>
       </c>
       <c r="C194" t="n">
-        <v>10.77758693695068</v>
+        <v>43.38531112670898</v>
       </c>
       <c r="D194" t="n">
-        <v>-10.60851097106934</v>
+        <v>3.836859941482544</v>
       </c>
       <c r="E194" t="n">
-        <v>3.621837139129639</v>
+        <v>-5.029747009277344</v>
       </c>
       <c r="F194" t="n">
-        <v>3.642103433609009</v>
+        <v>3.048158645629883</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>7.531437873840332</v>
+        <v>38.23932266235352</v>
       </c>
       <c r="B195" t="n">
-        <v>-7.931854248046875</v>
+        <v>5.257216453552246</v>
       </c>
       <c r="C195" t="n">
-        <v>5.120422840118408</v>
+        <v>36.14690017700195</v>
       </c>
       <c r="D195" t="n">
-        <v>-11.30825042724609</v>
+        <v>3.089905977249146</v>
       </c>
       <c r="E195" t="n">
-        <v>2.874296188354492</v>
+        <v>-6.684136390686035</v>
       </c>
       <c r="F195" t="n">
-        <v>5.036792755126953</v>
+        <v>6.22857666015625</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>6.978601455688477</v>
+        <v>38.44047164916992</v>
       </c>
       <c r="B196" t="n">
-        <v>-9.159997940063477</v>
+        <v>2.693846464157104</v>
       </c>
       <c r="C196" t="n">
-        <v>-0.1448333263397217</v>
+        <v>27.5897388458252</v>
       </c>
       <c r="D196" t="n">
-        <v>-11.93898677825928</v>
+        <v>2.566828966140747</v>
       </c>
       <c r="E196" t="n">
-        <v>1.810452818870544</v>
+        <v>-8.867871284484863</v>
       </c>
       <c r="F196" t="n">
-        <v>5.968119144439697</v>
+        <v>9.524168968200684</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>7.465704917907715</v>
+        <v>38.64476776123047</v>
       </c>
       <c r="B197" t="n">
-        <v>-11.02025318145752</v>
+        <v>-0.09641760587692261</v>
       </c>
       <c r="C197" t="n">
-        <v>-5.011953353881836</v>
+        <v>19.88466453552246</v>
       </c>
       <c r="D197" t="n">
-        <v>-12.11573314666748</v>
+        <v>2.638121843338013</v>
       </c>
       <c r="E197" t="n">
-        <v>0.7623003721237183</v>
+        <v>-10.54611301422119</v>
       </c>
       <c r="F197" t="n">
-        <v>7.539434909820557</v>
+        <v>12.31680297851562</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>6.218780517578125</v>
+        <v>38.68006134033203</v>
       </c>
       <c r="B198" t="n">
-        <v>-12.18103694915771</v>
+        <v>-2.537801027297974</v>
       </c>
       <c r="C198" t="n">
-        <v>-8.662849426269531</v>
+        <v>13.79729843139648</v>
       </c>
       <c r="D198" t="n">
-        <v>-12.50702381134033</v>
+        <v>2.901366472244263</v>
       </c>
       <c r="E198" t="n">
-        <v>0.4206606447696686</v>
+        <v>-12.24162673950195</v>
       </c>
       <c r="F198" t="n">
-        <v>8.651697158813477</v>
+        <v>15.29418182373047</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>5.883088111877441</v>
+        <v>37.75361251831055</v>
       </c>
       <c r="B199" t="n">
-        <v>-13.57872581481934</v>
+        <v>-4.964818000793457</v>
       </c>
       <c r="C199" t="n">
-        <v>-11.56341457366943</v>
+        <v>8.739901542663574</v>
       </c>
       <c r="D199" t="n">
-        <v>-12.62425422668457</v>
+        <v>4.011141777038574</v>
       </c>
       <c r="E199" t="n">
-        <v>-0.224322035908699</v>
+        <v>-12.5772066116333</v>
       </c>
       <c r="F199" t="n">
-        <v>10.11161231994629</v>
+        <v>17.90704727172852</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>5.666627407073975</v>
+        <v>38.8895149230957</v>
       </c>
       <c r="B200" t="n">
-        <v>-15.34340000152588</v>
+        <v>-7.595988273620605</v>
       </c>
       <c r="C200" t="n">
-        <v>-12.45816898345947</v>
+        <v>6.306107521057129</v>
       </c>
       <c r="D200" t="n">
-        <v>-11.96598339080811</v>
+        <v>4.343976020812988</v>
       </c>
       <c r="E200" t="n">
-        <v>-0.522474467754364</v>
+        <v>-12.59235000610352</v>
       </c>
       <c r="F200" t="n">
-        <v>10.58218669891357</v>
+        <v>19.61745834350586</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>5.430588245391846</v>
+        <v>38.86832809448242</v>
       </c>
       <c r="B201" t="n">
-        <v>-16.23310661315918</v>
+        <v>-9.711653709411621</v>
       </c>
       <c r="C201" t="n">
-        <v>-12.88083934783936</v>
+        <v>5.270590782165527</v>
       </c>
       <c r="D201" t="n">
-        <v>-11.73979377746582</v>
+        <v>5.77220630645752</v>
       </c>
       <c r="E201" t="n">
-        <v>-1.108844041824341</v>
+        <v>-12.94650745391846</v>
       </c>
       <c r="F201" t="n">
-        <v>11.38733291625977</v>
+        <v>20.7254638671875</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="n">
-        <v>6.287759304046631</v>
+        <v>39.20009613037109</v>
       </c>
       <c r="B202" t="n">
-        <v>-17.24691200256348</v>
+        <v>-11.53319072723389</v>
       </c>
       <c r="C202" t="n">
-        <v>-11.62455368041992</v>
+        <v>5.97885799407959</v>
       </c>
       <c r="D202" t="n">
-        <v>-10.33096885681152</v>
+        <v>7.838688850402832</v>
       </c>
       <c r="E202" t="n">
-        <v>-1.432627439498901</v>
+        <v>-14.06498718261719</v>
       </c>
       <c r="F202" t="n">
-        <v>10.91241836547852</v>
+        <v>20.2278003692627</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="n">
-        <v>6.328886032104492</v>
+        <v>40.60978698730469</v>
       </c>
       <c r="B203" t="n">
-        <v>-17.54310417175293</v>
+        <v>-12.05863857269287</v>
       </c>
       <c r="C203" t="n">
-        <v>-10.62575817108154</v>
+        <v>6.234143257141113</v>
       </c>
       <c r="D203" t="n">
-        <v>-8.733209609985352</v>
+        <v>10.13365936279297</v>
       </c>
       <c r="E203" t="n">
-        <v>-1.919651865959167</v>
+        <v>-14.69130039215088</v>
       </c>
       <c r="F203" t="n">
-        <v>9.4512939453125</v>
+        <v>18.04799461364746</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="n">
-        <v>7.925431251525879</v>
+        <v>41.07406234741211</v>
       </c>
       <c r="B204" t="n">
-        <v>-17.72621917724609</v>
+        <v>-12.75615215301514</v>
       </c>
       <c r="C204" t="n">
-        <v>-9.922252655029297</v>
+        <v>8.714591026306152</v>
       </c>
       <c r="D204" t="n">
-        <v>-6.937161922454834</v>
+        <v>13.85896301269531</v>
       </c>
       <c r="E204" t="n">
-        <v>-2.420074939727783</v>
+        <v>-16.62503814697266</v>
       </c>
       <c r="F204" t="n">
-        <v>7.394166946411133</v>
+        <v>11.7247486114502</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="n">
-        <v>7.877303123474121</v>
+        <v>41.67374038696289</v>
       </c>
       <c r="B205" t="n">
-        <v>-17.71748352050781</v>
+        <v>-12.09828090667725</v>
       </c>
       <c r="C205" t="n">
-        <v>-7.631353855133057</v>
+        <v>10.51895141601562</v>
       </c>
       <c r="D205" t="n">
-        <v>-3.912517547607422</v>
+        <v>18.04299736022949</v>
       </c>
       <c r="E205" t="n">
-        <v>-3.442515134811401</v>
+        <v>-19.08783912658691</v>
       </c>
       <c r="F205" t="n">
-        <v>3.308506965637207</v>
+        <v>3.593987464904785</v>
       </c>
     </row>
   </sheetData>
